--- a/Euro2020/result_files/EC_2020_Papa.xlsx
+++ b/Euro2020/result_files/EC_2020_Papa.xlsx
@@ -108,7 +108,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="50">
     <fill>
       <patternFill/>
     </fill>
@@ -386,6 +386,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
       </patternFill>
     </fill>
   </fills>
@@ -790,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1308,132 +1318,142 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="44" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1465,21 +1485,17 @@
     <xf numFmtId="0" fontId="9" fillId="35" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1876,25 +1892,25 @@
   <dimension ref="B2:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="230" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="230" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="230" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="230" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="230" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="230" min="9" max="9"/>
-    <col width="4" customWidth="1" style="230" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="230" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="230" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="230" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="230">
-      <c r="C2" s="236" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="217">
+      <c r="C2" s="216" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -2236,21 +2252,21 @@
       <c r="K15" s="82" t="n"/>
       <c r="L15" s="82" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="230">
-      <c r="C16" s="220" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="217">
+      <c r="C16" s="234" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="221" t="n"/>
-      <c r="E16" s="221" t="n"/>
-      <c r="F16" s="221" t="n"/>
-      <c r="G16" s="221" t="n"/>
-      <c r="H16" s="221" t="n"/>
-      <c r="I16" s="221" t="n"/>
-      <c r="J16" s="221" t="n"/>
-      <c r="K16" s="221" t="n"/>
-      <c r="L16" s="221" t="n"/>
+      <c r="D16" s="222" t="n"/>
+      <c r="E16" s="222" t="n"/>
+      <c r="F16" s="222" t="n"/>
+      <c r="G16" s="222" t="n"/>
+      <c r="H16" s="222" t="n"/>
+      <c r="I16" s="222" t="n"/>
+      <c r="J16" s="222" t="n"/>
+      <c r="K16" s="222" t="n"/>
+      <c r="L16" s="222" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2258,19 +2274,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="237" t="n"/>
-      <c r="E17" s="232" t="n"/>
-      <c r="F17" s="232" t="n"/>
-      <c r="G17" s="233" t="n"/>
-      <c r="H17" s="231" t="inlineStr">
+      <c r="D17" s="218" t="n"/>
+      <c r="E17" s="219" t="n"/>
+      <c r="F17" s="219" t="n"/>
+      <c r="G17" s="220" t="n"/>
+      <c r="H17" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="232" t="n"/>
-      <c r="J17" s="232" t="n"/>
-      <c r="K17" s="232" t="n"/>
-      <c r="L17" s="233" t="n"/>
+      <c r="I17" s="219" t="n"/>
+      <c r="J17" s="219" t="n"/>
+      <c r="K17" s="219" t="n"/>
+      <c r="L17" s="220" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2278,50 +2294,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="224" t="n"/>
-      <c r="E18" s="221" t="n"/>
-      <c r="F18" s="221" t="n"/>
-      <c r="G18" s="225" t="n"/>
-      <c r="H18" s="234" t="n"/>
-      <c r="I18" s="221" t="n"/>
-      <c r="J18" s="221" t="n"/>
-      <c r="K18" s="221" t="n"/>
-      <c r="L18" s="225" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="222" t="n"/>
+      <c r="F18" s="222" t="n"/>
+      <c r="G18" s="223" t="n"/>
+      <c r="H18" s="226" t="n"/>
+      <c r="I18" s="222" t="n"/>
+      <c r="J18" s="222" t="n"/>
+      <c r="K18" s="222" t="n"/>
+      <c r="L18" s="223" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="235" t="inlineStr">
+      <c r="C20" s="227" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="232" t="n"/>
+      <c r="D20" s="219" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="235" t="inlineStr">
+      <c r="G20" s="227" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="232" t="n"/>
+      <c r="H20" s="219" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="235" t="inlineStr">
+      <c r="K20" s="227" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="232" t="n"/>
+      <c r="L20" s="219" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -2968,21 +2984,21 @@
       <c r="L36" s="96" t="n"/>
       <c r="M36" s="91" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="230">
-      <c r="C38" s="220" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="217">
+      <c r="C38" s="234" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="221" t="n"/>
-      <c r="E38" s="221" t="n"/>
-      <c r="F38" s="221" t="n"/>
-      <c r="G38" s="221" t="n"/>
-      <c r="H38" s="221" t="n"/>
-      <c r="I38" s="221" t="n"/>
-      <c r="J38" s="221" t="n"/>
-      <c r="K38" s="221" t="n"/>
-      <c r="L38" s="221" t="n"/>
+      <c r="D38" s="222" t="n"/>
+      <c r="E38" s="222" t="n"/>
+      <c r="F38" s="222" t="n"/>
+      <c r="G38" s="222" t="n"/>
+      <c r="H38" s="222" t="n"/>
+      <c r="I38" s="222" t="n"/>
+      <c r="J38" s="222" t="n"/>
+      <c r="K38" s="222" t="n"/>
+      <c r="L38" s="222" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -2990,19 +3006,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="237" t="n"/>
-      <c r="E39" s="232" t="n"/>
-      <c r="F39" s="232" t="n"/>
-      <c r="G39" s="233" t="n"/>
-      <c r="H39" s="231" t="inlineStr">
+      <c r="D39" s="218" t="n"/>
+      <c r="E39" s="219" t="n"/>
+      <c r="F39" s="219" t="n"/>
+      <c r="G39" s="220" t="n"/>
+      <c r="H39" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="232" t="n"/>
-      <c r="J39" s="232" t="n"/>
-      <c r="K39" s="232" t="n"/>
-      <c r="L39" s="233" t="n"/>
+      <c r="I39" s="219" t="n"/>
+      <c r="J39" s="219" t="n"/>
+      <c r="K39" s="219" t="n"/>
+      <c r="L39" s="220" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -3010,27 +3026,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="224" t="n"/>
-      <c r="E40" s="221" t="n"/>
-      <c r="F40" s="221" t="n"/>
-      <c r="G40" s="225" t="n"/>
-      <c r="H40" s="234" t="n"/>
-      <c r="I40" s="221" t="n"/>
-      <c r="J40" s="221" t="n"/>
-      <c r="K40" s="221" t="n"/>
-      <c r="L40" s="225" t="n"/>
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="222" t="n"/>
+      <c r="F40" s="222" t="n"/>
+      <c r="G40" s="223" t="n"/>
+      <c r="H40" s="226" t="n"/>
+      <c r="I40" s="222" t="n"/>
+      <c r="J40" s="222" t="n"/>
+      <c r="K40" s="222" t="n"/>
+      <c r="L40" s="223" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="45" t="n"/>
-      <c r="C41" s="221" t="n"/>
+      <c r="C41" s="222" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="226" t="inlineStr">
+      <c r="B42" s="235" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="221" t="n"/>
+      <c r="C42" s="222" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -3073,11 +3089,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="229" t="n"/>
+      <c r="S42" s="224" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="218" t="inlineStr">
+      <c r="B43" s="233" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -3087,47 +3103,47 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="223" t="inlineStr">
+      <c r="D43" s="228" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B44" s="219" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B44" s="229" t="n"/>
       <c r="C44" s="183" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="219" t="n"/>
+      <c r="D44" s="229" t="n"/>
       <c r="E44" s="43" t="n"/>
-      <c r="F44" s="222" t="inlineStr">
+      <c r="F44" s="232" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="210" t="inlineStr">
+      <c r="G44" s="204" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="223" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H44" s="228" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="92" t="n"/>
       <c r="E45" s="42" t="n"/>
-      <c r="F45" s="219" t="n"/>
-      <c r="G45" s="211" t="inlineStr">
+      <c r="F45" s="229" t="n"/>
+      <c r="G45" s="205" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="219" t="n"/>
+      <c r="H45" s="229" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="218" t="inlineStr">
+      <c r="B46" s="233" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -3137,7 +3153,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="223" t="inlineStr">
+      <c r="D46" s="228" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -3145,18 +3161,18 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="93" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B47" s="219" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B47" s="229" t="n"/>
       <c r="C47" s="185" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="219" t="n"/>
+      <c r="D47" s="229" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="94" t="n"/>
       <c r="I47" s="42" t="n"/>
-      <c r="J47" s="227" t="inlineStr">
+      <c r="J47" s="230" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -3166,8 +3182,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="223" t="n"/>
-      <c r="S47" s="229" t="n"/>
+      <c r="L47" s="228" t="n"/>
+      <c r="S47" s="224" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -3175,16 +3191,16 @@
       <c r="D48" s="92" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="94" t="n"/>
-      <c r="J48" s="219" t="n"/>
+      <c r="J48" s="229" t="n"/>
       <c r="K48" s="41" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="219" t="n"/>
+      <c r="L48" s="229" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="218" t="inlineStr">
+      <c r="B49" s="233" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -3194,7 +3210,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="223" t="inlineStr">
+      <c r="D49" s="228" t="inlineStr">
         <is>
           <t>3-4</t>
         </is>
@@ -3204,45 +3220,45 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="93" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B50" s="219" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B50" s="229" t="n"/>
       <c r="C50" s="187" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="219" t="n"/>
+      <c r="D50" s="229" t="n"/>
       <c r="E50" s="42" t="n"/>
-      <c r="F50" s="222" t="inlineStr">
+      <c r="F50" s="232" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="210" t="inlineStr">
+      <c r="G50" s="204" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="223" t="n"/>
+      <c r="H50" s="228" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="94" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="92" t="n"/>
       <c r="E51" s="42" t="n"/>
-      <c r="F51" s="219" t="n"/>
-      <c r="G51" s="212" t="inlineStr">
+      <c r="F51" s="229" t="n"/>
+      <c r="G51" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="219" t="n"/>
+      <c r="H51" s="229" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="94" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B52" s="218" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B52" s="233" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3252,7 +3268,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="223" t="inlineStr">
+      <c r="D52" s="228" t="inlineStr">
         <is>
           <t>3-5</t>
         </is>
@@ -3262,7 +3278,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="94" t="n"/>
       <c r="M52" s="42" t="n"/>
-      <c r="N52" s="228" t="inlineStr">
+      <c r="N52" s="231" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3272,27 +3288,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="223" t="n"/>
+      <c r="P52" s="228" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="219" t="n"/>
-      <c r="C53" s="212" t="inlineStr">
+      <c r="B53" s="229" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="219" t="n"/>
+      <c r="D53" s="229" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="92" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="94" t="n"/>
-      <c r="N53" s="219" t="n"/>
+      <c r="N53" s="229" t="n"/>
       <c r="O53" s="41" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="219" t="n"/>
+      <c r="P53" s="229" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3303,61 +3319,65 @@
       <c r="L54" s="94" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="218" t="inlineStr">
+      <c r="B55" s="233" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="190" t="inlineStr">
+      <c r="C55" s="189" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="223" t="n"/>
+      <c r="D55" s="228" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
       <c r="G55" s="1" t="n"/>
       <c r="H55" s="92" t="n"/>
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="94" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B56" s="219" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B56" s="229" t="n"/>
       <c r="C56" s="183" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="219" t="n"/>
+      <c r="D56" s="229" t="n"/>
       <c r="E56" s="43" t="n"/>
-      <c r="F56" s="222" t="inlineStr">
+      <c r="F56" s="232" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="39" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="223" t="n"/>
+      <c r="G56" s="256" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="228" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="94" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="92" t="n"/>
       <c r="E57" s="44" t="n"/>
-      <c r="F57" s="219" t="n"/>
-      <c r="G57" s="40" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="219" t="n"/>
+      <c r="F57" s="229" t="n"/>
+      <c r="G57" s="257" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="229" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="94" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="218" t="inlineStr">
+      <c r="B58" s="233" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3367,24 +3387,28 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="223" t="n"/>
+      <c r="D58" s="228" t="inlineStr">
+        <is>
+          <t>2-0</t>
+        </is>
+      </c>
       <c r="G58" s="1" t="n"/>
       <c r="H58" s="93" t="n"/>
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="95" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B59" s="219" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B59" s="229" t="n"/>
       <c r="C59" s="185" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="219" t="n"/>
+      <c r="D59" s="229" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="94" t="n"/>
       <c r="I59" s="42" t="n"/>
-      <c r="J59" s="227" t="inlineStr">
+      <c r="J59" s="230" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -3394,33 +3418,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="223" t="n"/>
+      <c r="L59" s="228" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="92" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="94" t="n"/>
-      <c r="J60" s="219" t="n"/>
+      <c r="J60" s="229" t="n"/>
       <c r="K60" s="41" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="219" t="n"/>
+      <c r="L60" s="229" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="218" t="inlineStr">
+      <c r="B61" s="233" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="191" t="inlineStr">
+      <c r="C61" s="190" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="223" t="inlineStr">
+      <c r="D61" s="228" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -3428,41 +3452,41 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="95" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B62" s="219" t="n"/>
-      <c r="C62" s="192" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B62" s="229" t="n"/>
+      <c r="C62" s="191" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="219" t="n"/>
+      <c r="D62" s="229" t="n"/>
       <c r="E62" s="43" t="n"/>
-      <c r="F62" s="222" t="inlineStr">
+      <c r="F62" s="232" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="213" t="inlineStr">
+      <c r="G62" s="207" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="223" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H62" s="228" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="92" t="n"/>
       <c r="E63" s="44" t="n"/>
-      <c r="F63" s="219" t="n"/>
-      <c r="G63" s="211" t="inlineStr">
+      <c r="F63" s="229" t="n"/>
+      <c r="G63" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="219" t="n"/>
+      <c r="H63" s="229" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="218" t="inlineStr">
+      <c r="B64" s="233" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3472,43 +3496,33 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="223" t="inlineStr">
+      <c r="D64" s="228" t="inlineStr">
         <is>
           <t>0-4</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="219" t="n"/>
-      <c r="C65" s="193" t="inlineStr">
+      <c r="B65" s="229" t="n"/>
+      <c r="C65" s="192" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="219" t="n"/>
+      <c r="D65" s="229" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3524,16 +3538,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3552,17 +3576,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="230" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="230" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="230" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="230" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="230" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="230" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="230" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="230" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="230" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="217" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="217" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="217" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="217" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="217" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="217" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="217" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="217" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3616,7 +3640,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3652,7 +3676,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3688,7 +3712,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3724,7 +3748,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
@@ -3926,22 +3950,22 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="230" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="230" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="230" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="230" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="230" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="230" min="9" max="9"/>
-    <col width="4" customWidth="1" style="230" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="230" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="230" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="230" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="230">
-      <c r="C2" s="236" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="217">
+      <c r="C2" s="216" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4235,21 +4259,21 @@
       <c r="K15" s="82" t="n"/>
       <c r="L15" s="82" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="230">
-      <c r="C16" s="220" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="217">
+      <c r="C16" s="234" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="221" t="n"/>
-      <c r="E16" s="221" t="n"/>
-      <c r="F16" s="221" t="n"/>
-      <c r="G16" s="221" t="n"/>
-      <c r="H16" s="221" t="n"/>
-      <c r="I16" s="221" t="n"/>
-      <c r="J16" s="221" t="n"/>
-      <c r="K16" s="221" t="n"/>
-      <c r="L16" s="221" t="n"/>
+      <c r="D16" s="222" t="n"/>
+      <c r="E16" s="222" t="n"/>
+      <c r="F16" s="222" t="n"/>
+      <c r="G16" s="222" t="n"/>
+      <c r="H16" s="222" t="n"/>
+      <c r="I16" s="222" t="n"/>
+      <c r="J16" s="222" t="n"/>
+      <c r="K16" s="222" t="n"/>
+      <c r="L16" s="222" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -4257,19 +4281,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="237" t="n"/>
-      <c r="E17" s="232" t="n"/>
-      <c r="F17" s="232" t="n"/>
-      <c r="G17" s="233" t="n"/>
-      <c r="H17" s="231" t="inlineStr">
+      <c r="D17" s="218" t="n"/>
+      <c r="E17" s="219" t="n"/>
+      <c r="F17" s="219" t="n"/>
+      <c r="G17" s="220" t="n"/>
+      <c r="H17" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="232" t="n"/>
-      <c r="J17" s="232" t="n"/>
-      <c r="K17" s="232" t="n"/>
-      <c r="L17" s="233" t="n"/>
+      <c r="I17" s="219" t="n"/>
+      <c r="J17" s="219" t="n"/>
+      <c r="K17" s="219" t="n"/>
+      <c r="L17" s="220" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -4277,50 +4301,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="224" t="n"/>
-      <c r="E18" s="221" t="n"/>
-      <c r="F18" s="221" t="n"/>
-      <c r="G18" s="225" t="n"/>
-      <c r="H18" s="234" t="n"/>
-      <c r="I18" s="221" t="n"/>
-      <c r="J18" s="221" t="n"/>
-      <c r="K18" s="221" t="n"/>
-      <c r="L18" s="225" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="222" t="n"/>
+      <c r="F18" s="222" t="n"/>
+      <c r="G18" s="223" t="n"/>
+      <c r="H18" s="226" t="n"/>
+      <c r="I18" s="222" t="n"/>
+      <c r="J18" s="222" t="n"/>
+      <c r="K18" s="222" t="n"/>
+      <c r="L18" s="223" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="235" t="inlineStr">
+      <c r="C20" s="227" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="232" t="n"/>
+      <c r="D20" s="219" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="235" t="inlineStr">
+      <c r="G20" s="227" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="232" t="n"/>
+      <c r="H20" s="219" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="235" t="inlineStr">
+      <c r="K20" s="227" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="232" t="n"/>
+      <c r="L20" s="219" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4908,20 +4932,20 @@
       <c r="M36" s="91" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="220" t="inlineStr">
+      <c r="C38" s="234" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="221" t="n"/>
-      <c r="E38" s="221" t="n"/>
-      <c r="F38" s="221" t="n"/>
-      <c r="G38" s="221" t="n"/>
-      <c r="H38" s="221" t="n"/>
-      <c r="I38" s="221" t="n"/>
-      <c r="J38" s="221" t="n"/>
-      <c r="K38" s="221" t="n"/>
-      <c r="L38" s="221" t="n"/>
+      <c r="D38" s="222" t="n"/>
+      <c r="E38" s="222" t="n"/>
+      <c r="F38" s="222" t="n"/>
+      <c r="G38" s="222" t="n"/>
+      <c r="H38" s="222" t="n"/>
+      <c r="I38" s="222" t="n"/>
+      <c r="J38" s="222" t="n"/>
+      <c r="K38" s="222" t="n"/>
+      <c r="L38" s="222" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -4929,19 +4953,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="237" t="n"/>
-      <c r="E39" s="232" t="n"/>
-      <c r="F39" s="232" t="n"/>
-      <c r="G39" s="233" t="n"/>
-      <c r="H39" s="231" t="inlineStr">
+      <c r="D39" s="218" t="n"/>
+      <c r="E39" s="219" t="n"/>
+      <c r="F39" s="219" t="n"/>
+      <c r="G39" s="220" t="n"/>
+      <c r="H39" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="232" t="n"/>
-      <c r="J39" s="232" t="n"/>
-      <c r="K39" s="232" t="n"/>
-      <c r="L39" s="233" t="n"/>
+      <c r="I39" s="219" t="n"/>
+      <c r="J39" s="219" t="n"/>
+      <c r="K39" s="219" t="n"/>
+      <c r="L39" s="220" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -4949,27 +4973,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="224" t="n"/>
-      <c r="E40" s="221" t="n"/>
-      <c r="F40" s="221" t="n"/>
-      <c r="G40" s="225" t="n"/>
-      <c r="H40" s="234" t="n"/>
-      <c r="I40" s="221" t="n"/>
-      <c r="J40" s="221" t="n"/>
-      <c r="K40" s="221" t="n"/>
-      <c r="L40" s="225" t="n"/>
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="222" t="n"/>
+      <c r="F40" s="222" t="n"/>
+      <c r="G40" s="223" t="n"/>
+      <c r="H40" s="226" t="n"/>
+      <c r="I40" s="222" t="n"/>
+      <c r="J40" s="222" t="n"/>
+      <c r="K40" s="222" t="n"/>
+      <c r="L40" s="223" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="45" t="n"/>
-      <c r="C41" s="221" t="n"/>
+      <c r="C41" s="222" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="226" t="inlineStr">
+      <c r="B42" s="235" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="221" t="n"/>
+      <c r="C42" s="222" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -5012,11 +5036,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="229" t="n"/>
+      <c r="S42" s="224" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="218" t="inlineStr">
+      <c r="B43" s="233" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -5026,47 +5050,47 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="223" t="inlineStr">
+      <c r="D43" s="228" t="inlineStr">
         <is>
           <t>3-0</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B44" s="219" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B44" s="229" t="n"/>
       <c r="C44" s="183" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="219" t="n"/>
+      <c r="D44" s="229" t="n"/>
       <c r="E44" s="43" t="n"/>
-      <c r="F44" s="222" t="inlineStr">
+      <c r="F44" s="232" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="210" t="inlineStr">
+      <c r="G44" s="204" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="223" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H44" s="228" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="92" t="n"/>
       <c r="E45" s="42" t="n"/>
-      <c r="F45" s="219" t="n"/>
-      <c r="G45" s="211" t="inlineStr">
+      <c r="F45" s="229" t="n"/>
+      <c r="G45" s="205" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="219" t="n"/>
+      <c r="H45" s="229" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="218" t="inlineStr">
+      <c r="B46" s="233" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -5076,7 +5100,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="223" t="inlineStr">
+      <c r="D46" s="228" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
@@ -5084,18 +5108,18 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="93" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B47" s="219" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B47" s="229" t="n"/>
       <c r="C47" s="185" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="219" t="n"/>
+      <c r="D47" s="229" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="94" t="n"/>
       <c r="I47" s="42" t="n"/>
-      <c r="J47" s="227" t="inlineStr">
+      <c r="J47" s="230" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -5105,8 +5129,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="223" t="n"/>
-      <c r="S47" s="229" t="n"/>
+      <c r="L47" s="228" t="n"/>
+      <c r="S47" s="224" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -5114,16 +5138,16 @@
       <c r="D48" s="92" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="94" t="n"/>
-      <c r="J48" s="219" t="n"/>
+      <c r="J48" s="229" t="n"/>
       <c r="K48" s="41" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="219" t="n"/>
+      <c r="L48" s="229" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="218" t="inlineStr">
+      <c r="B49" s="233" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5133,7 +5157,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="223" t="inlineStr">
+      <c r="D49" s="228" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -5143,45 +5167,45 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="93" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B50" s="219" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B50" s="229" t="n"/>
       <c r="C50" s="187" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="219" t="n"/>
+      <c r="D50" s="229" t="n"/>
       <c r="E50" s="42" t="n"/>
-      <c r="F50" s="222" t="inlineStr">
+      <c r="F50" s="232" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="210" t="inlineStr">
+      <c r="G50" s="204" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="223" t="n"/>
+      <c r="H50" s="228" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="94" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="92" t="n"/>
       <c r="E51" s="42" t="n"/>
-      <c r="F51" s="219" t="n"/>
-      <c r="G51" s="212" t="inlineStr">
+      <c r="F51" s="229" t="n"/>
+      <c r="G51" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="219" t="n"/>
+      <c r="H51" s="229" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="94" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B52" s="218" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B52" s="233" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5191,7 +5215,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="223" t="inlineStr">
+      <c r="D52" s="228" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
@@ -5201,7 +5225,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="94" t="n"/>
       <c r="M52" s="42" t="n"/>
-      <c r="N52" s="228" t="inlineStr">
+      <c r="N52" s="231" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5211,27 +5235,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="223" t="n"/>
+      <c r="P52" s="228" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="219" t="n"/>
-      <c r="C53" s="212" t="inlineStr">
+      <c r="B53" s="229" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="219" t="n"/>
+      <c r="D53" s="229" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="92" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="94" t="n"/>
-      <c r="N53" s="219" t="n"/>
+      <c r="N53" s="229" t="n"/>
       <c r="O53" s="41" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="219" t="n"/>
+      <c r="P53" s="229" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -5242,17 +5266,17 @@
       <c r="L54" s="94" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="218" t="inlineStr">
+      <c r="B55" s="233" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="190" t="inlineStr">
+      <c r="C55" s="189" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="223" t="inlineStr">
+      <c r="D55" s="228" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5262,45 +5286,45 @@
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="94" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B56" s="219" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B56" s="229" t="n"/>
       <c r="C56" s="183" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="219" t="n"/>
+      <c r="D56" s="229" t="n"/>
       <c r="E56" s="43" t="n"/>
-      <c r="F56" s="222" t="inlineStr">
+      <c r="F56" s="232" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="39" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="223" t="n"/>
+      <c r="G56" s="256" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="228" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="94" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="92" t="n"/>
       <c r="E57" s="44" t="n"/>
-      <c r="F57" s="219" t="n"/>
-      <c r="G57" s="40" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="219" t="n"/>
+      <c r="F57" s="229" t="n"/>
+      <c r="G57" s="257" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="229" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="94" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="218" t="inlineStr">
+      <c r="B58" s="233" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5310,7 +5334,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="223" t="inlineStr">
+      <c r="D58" s="228" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5320,18 +5344,18 @@
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="95" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B59" s="219" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B59" s="229" t="n"/>
       <c r="C59" s="185" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="219" t="n"/>
+      <c r="D59" s="229" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="94" t="n"/>
       <c r="I59" s="42" t="n"/>
-      <c r="J59" s="227" t="inlineStr">
+      <c r="J59" s="230" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -5341,33 +5365,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="223" t="n"/>
+      <c r="L59" s="228" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="92" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="94" t="n"/>
-      <c r="J60" s="219" t="n"/>
+      <c r="J60" s="229" t="n"/>
       <c r="K60" s="41" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="219" t="n"/>
+      <c r="L60" s="229" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="218" t="inlineStr">
+      <c r="B61" s="233" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="191" t="inlineStr">
+      <c r="C61" s="190" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="223" t="inlineStr">
+      <c r="D61" s="228" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5375,41 +5399,41 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="95" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B62" s="219" t="n"/>
-      <c r="C62" s="192" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B62" s="229" t="n"/>
+      <c r="C62" s="191" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="219" t="n"/>
+      <c r="D62" s="229" t="n"/>
       <c r="E62" s="43" t="n"/>
-      <c r="F62" s="222" t="inlineStr">
+      <c r="F62" s="232" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="213" t="inlineStr">
+      <c r="G62" s="207" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="223" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H62" s="228" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="92" t="n"/>
       <c r="E63" s="44" t="n"/>
-      <c r="F63" s="219" t="n"/>
-      <c r="G63" s="211" t="inlineStr">
+      <c r="F63" s="229" t="n"/>
+      <c r="G63" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="219" t="n"/>
+      <c r="H63" s="229" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="218" t="inlineStr">
+      <c r="B64" s="233" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5419,54 +5443,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="223" t="inlineStr">
+      <c r="D64" s="228" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="219" t="n"/>
-      <c r="C65" s="193" t="inlineStr">
+      <c r="B65" s="229" t="n"/>
+      <c r="C65" s="192" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="219" t="n"/>
+      <c r="D65" s="229" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -5481,6 +5474,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5499,26 +5523,26 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="230" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="230" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="230" min="3" max="4"/>
-    <col width="9.140625" customWidth="1" style="230" min="5" max="5"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="230" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="230" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="230" min="9" max="9"/>
-    <col width="4" customWidth="1" style="230" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="230" min="11" max="12"/>
-    <col width="9.140625" customWidth="1" style="230" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="230" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="230" min="15" max="17"/>
-    <col width="9.140625" customWidth="1" style="230" min="18" max="34"/>
-    <col width="9.140625" customWidth="1" style="230" min="35" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="217" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="217" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="217" min="3" max="4"/>
+    <col width="9.140625" customWidth="1" style="217" min="5" max="5"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="217" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="217" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="217" min="9" max="9"/>
+    <col width="4" customWidth="1" style="217" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="217" min="11" max="12"/>
+    <col width="9.140625" customWidth="1" style="217" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="217" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="217" min="15" max="17"/>
+    <col width="9.140625" customWidth="1" style="217" min="18" max="35"/>
+    <col width="9.140625" customWidth="1" style="217" min="36" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="230">
-      <c r="C2" s="236" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="217">
+      <c r="C2" s="216" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -5861,20 +5885,20 @@
       <c r="L15" s="82" t="n"/>
     </row>
     <row r="16">
-      <c r="C16" s="220" t="inlineStr">
+      <c r="C16" s="234" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="221" t="n"/>
-      <c r="E16" s="221" t="n"/>
-      <c r="F16" s="221" t="n"/>
-      <c r="G16" s="221" t="n"/>
-      <c r="H16" s="221" t="n"/>
-      <c r="I16" s="221" t="n"/>
-      <c r="J16" s="221" t="n"/>
-      <c r="K16" s="221" t="n"/>
-      <c r="L16" s="221" t="n"/>
+      <c r="D16" s="222" t="n"/>
+      <c r="E16" s="222" t="n"/>
+      <c r="F16" s="222" t="n"/>
+      <c r="G16" s="222" t="n"/>
+      <c r="H16" s="222" t="n"/>
+      <c r="I16" s="222" t="n"/>
+      <c r="J16" s="222" t="n"/>
+      <c r="K16" s="222" t="n"/>
+      <c r="L16" s="222" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -5882,19 +5906,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="237" t="n"/>
-      <c r="E17" s="232" t="n"/>
-      <c r="F17" s="232" t="n"/>
-      <c r="G17" s="233" t="n"/>
-      <c r="H17" s="231" t="inlineStr">
+      <c r="D17" s="218" t="n"/>
+      <c r="E17" s="219" t="n"/>
+      <c r="F17" s="219" t="n"/>
+      <c r="G17" s="220" t="n"/>
+      <c r="H17" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="232" t="n"/>
-      <c r="J17" s="232" t="n"/>
-      <c r="K17" s="232" t="n"/>
-      <c r="L17" s="233" t="n"/>
+      <c r="I17" s="219" t="n"/>
+      <c r="J17" s="219" t="n"/>
+      <c r="K17" s="219" t="n"/>
+      <c r="L17" s="220" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -5902,50 +5926,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="224" t="n"/>
-      <c r="E18" s="221" t="n"/>
-      <c r="F18" s="221" t="n"/>
-      <c r="G18" s="225" t="n"/>
-      <c r="H18" s="234" t="n"/>
-      <c r="I18" s="221" t="n"/>
-      <c r="J18" s="221" t="n"/>
-      <c r="K18" s="221" t="n"/>
-      <c r="L18" s="225" t="n"/>
+      <c r="D18" s="221" t="n"/>
+      <c r="E18" s="222" t="n"/>
+      <c r="F18" s="222" t="n"/>
+      <c r="G18" s="223" t="n"/>
+      <c r="H18" s="226" t="n"/>
+      <c r="I18" s="222" t="n"/>
+      <c r="J18" s="222" t="n"/>
+      <c r="K18" s="222" t="n"/>
+      <c r="L18" s="223" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="235" t="inlineStr">
+      <c r="C20" s="227" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="232" t="n"/>
+      <c r="D20" s="219" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="235" t="inlineStr">
+      <c r="G20" s="227" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="232" t="n"/>
+      <c r="H20" s="219" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="235" t="inlineStr">
+      <c r="K20" s="227" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="232" t="n"/>
+      <c r="L20" s="219" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6533,20 +6557,20 @@
       <c r="M36" s="91" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="220" t="inlineStr">
+      <c r="C38" s="234" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="221" t="n"/>
-      <c r="E38" s="221" t="n"/>
-      <c r="F38" s="221" t="n"/>
-      <c r="G38" s="221" t="n"/>
-      <c r="H38" s="221" t="n"/>
-      <c r="I38" s="221" t="n"/>
-      <c r="J38" s="221" t="n"/>
-      <c r="K38" s="221" t="n"/>
-      <c r="L38" s="221" t="n"/>
+      <c r="D38" s="222" t="n"/>
+      <c r="E38" s="222" t="n"/>
+      <c r="F38" s="222" t="n"/>
+      <c r="G38" s="222" t="n"/>
+      <c r="H38" s="222" t="n"/>
+      <c r="I38" s="222" t="n"/>
+      <c r="J38" s="222" t="n"/>
+      <c r="K38" s="222" t="n"/>
+      <c r="L38" s="222" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -6554,19 +6578,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="237" t="n"/>
-      <c r="E39" s="232" t="n"/>
-      <c r="F39" s="232" t="n"/>
-      <c r="G39" s="233" t="n"/>
-      <c r="H39" s="231" t="inlineStr">
+      <c r="D39" s="218" t="n"/>
+      <c r="E39" s="219" t="n"/>
+      <c r="F39" s="219" t="n"/>
+      <c r="G39" s="220" t="n"/>
+      <c r="H39" s="225" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="232" t="n"/>
-      <c r="J39" s="232" t="n"/>
-      <c r="K39" s="232" t="n"/>
-      <c r="L39" s="233" t="n"/>
+      <c r="I39" s="219" t="n"/>
+      <c r="J39" s="219" t="n"/>
+      <c r="K39" s="219" t="n"/>
+      <c r="L39" s="220" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -6574,27 +6598,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="224" t="n"/>
-      <c r="E40" s="221" t="n"/>
-      <c r="F40" s="221" t="n"/>
-      <c r="G40" s="225" t="n"/>
-      <c r="H40" s="234" t="n"/>
-      <c r="I40" s="221" t="n"/>
-      <c r="J40" s="221" t="n"/>
-      <c r="K40" s="221" t="n"/>
-      <c r="L40" s="225" t="n"/>
+      <c r="D40" s="221" t="n"/>
+      <c r="E40" s="222" t="n"/>
+      <c r="F40" s="222" t="n"/>
+      <c r="G40" s="223" t="n"/>
+      <c r="H40" s="226" t="n"/>
+      <c r="I40" s="222" t="n"/>
+      <c r="J40" s="222" t="n"/>
+      <c r="K40" s="222" t="n"/>
+      <c r="L40" s="223" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="45" t="n"/>
-      <c r="C41" s="221" t="n"/>
+      <c r="C41" s="222" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="226" t="inlineStr">
+      <c r="B42" s="235" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="221" t="n"/>
+      <c r="C42" s="222" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6637,11 +6661,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="229" t="n"/>
+      <c r="S42" s="224" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="218" t="inlineStr">
+      <c r="B43" s="233" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -6651,47 +6675,47 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="223" t="inlineStr">
+      <c r="D43" s="228" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B44" s="219" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B44" s="229" t="n"/>
       <c r="C44" s="183" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="219" t="n"/>
+      <c r="D44" s="229" t="n"/>
       <c r="E44" s="43" t="n"/>
-      <c r="F44" s="222" t="inlineStr">
+      <c r="F44" s="232" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="210" t="inlineStr">
+      <c r="G44" s="204" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="223" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H44" s="228" t="n"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="92" t="n"/>
       <c r="E45" s="42" t="n"/>
-      <c r="F45" s="219" t="n"/>
-      <c r="G45" s="211" t="inlineStr">
+      <c r="F45" s="229" t="n"/>
+      <c r="G45" s="205" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="219" t="n"/>
+      <c r="H45" s="229" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="218" t="inlineStr">
+      <c r="B46" s="233" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -6701,7 +6725,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="223" t="inlineStr">
+      <c r="D46" s="228" t="inlineStr">
         <is>
           <t>3-2</t>
         </is>
@@ -6709,18 +6733,18 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="93" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B47" s="219" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B47" s="229" t="n"/>
       <c r="C47" s="185" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="219" t="n"/>
+      <c r="D47" s="229" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="94" t="n"/>
       <c r="I47" s="42" t="n"/>
-      <c r="J47" s="227" t="inlineStr">
+      <c r="J47" s="230" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -6730,8 +6754,8 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="223" t="n"/>
-      <c r="S47" s="229" t="n"/>
+      <c r="L47" s="228" t="n"/>
+      <c r="S47" s="224" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -6739,16 +6763,16 @@
       <c r="D48" s="92" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="94" t="n"/>
-      <c r="J48" s="219" t="n"/>
+      <c r="J48" s="229" t="n"/>
       <c r="K48" s="41" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="219" t="n"/>
+      <c r="L48" s="229" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="218" t="inlineStr">
+      <c r="B49" s="233" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -6758,7 +6782,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="223" t="inlineStr">
+      <c r="D49" s="228" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
@@ -6768,45 +6792,45 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="93" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B50" s="219" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B50" s="229" t="n"/>
       <c r="C50" s="187" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="219" t="n"/>
+      <c r="D50" s="229" t="n"/>
       <c r="E50" s="42" t="n"/>
-      <c r="F50" s="222" t="inlineStr">
+      <c r="F50" s="232" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="210" t="inlineStr">
+      <c r="G50" s="204" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="223" t="n"/>
+      <c r="H50" s="228" t="n"/>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="94" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="92" t="n"/>
       <c r="E51" s="42" t="n"/>
-      <c r="F51" s="219" t="n"/>
-      <c r="G51" s="212" t="inlineStr">
+      <c r="F51" s="229" t="n"/>
+      <c r="G51" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="219" t="n"/>
+      <c r="H51" s="229" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="94" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B52" s="218" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B52" s="233" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -6816,7 +6840,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="223" t="inlineStr">
+      <c r="D52" s="228" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -6826,7 +6850,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="94" t="n"/>
       <c r="M52" s="42" t="n"/>
-      <c r="N52" s="228" t="inlineStr">
+      <c r="N52" s="231" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -6836,27 +6860,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="223" t="n"/>
+      <c r="P52" s="228" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="219" t="n"/>
-      <c r="C53" s="212" t="inlineStr">
+      <c r="B53" s="229" t="n"/>
+      <c r="C53" s="206" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="219" t="n"/>
+      <c r="D53" s="229" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="92" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="94" t="n"/>
-      <c r="N53" s="219" t="n"/>
+      <c r="N53" s="229" t="n"/>
       <c r="O53" s="41" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="219" t="n"/>
+      <c r="P53" s="229" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -6867,17 +6891,17 @@
       <c r="L54" s="94" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="218" t="inlineStr">
+      <c r="B55" s="233" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="190" t="inlineStr">
+      <c r="C55" s="189" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="223" t="inlineStr">
+      <c r="D55" s="228" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -6887,45 +6911,45 @@
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="94" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B56" s="219" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B56" s="229" t="n"/>
       <c r="C56" s="183" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="219" t="n"/>
+      <c r="D56" s="229" t="n"/>
       <c r="E56" s="43" t="n"/>
-      <c r="F56" s="222" t="inlineStr">
+      <c r="F56" s="232" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="39" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="223" t="n"/>
+      <c r="G56" s="256" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="228" t="n"/>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="94" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="92" t="n"/>
       <c r="E57" s="44" t="n"/>
-      <c r="F57" s="219" t="n"/>
-      <c r="G57" s="40" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="219" t="n"/>
+      <c r="F57" s="229" t="n"/>
+      <c r="G57" s="257" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="229" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="94" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="218" t="inlineStr">
+      <c r="B58" s="233" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -6935,7 +6959,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="223" t="inlineStr">
+      <c r="D58" s="228" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
@@ -6945,18 +6969,18 @@
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="95" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B59" s="219" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B59" s="229" t="n"/>
       <c r="C59" s="185" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="219" t="n"/>
+      <c r="D59" s="229" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="94" t="n"/>
       <c r="I59" s="42" t="n"/>
-      <c r="J59" s="227" t="inlineStr">
+      <c r="J59" s="230" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -6966,33 +6990,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="223" t="n"/>
+      <c r="L59" s="228" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="92" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="94" t="n"/>
-      <c r="J60" s="219" t="n"/>
+      <c r="J60" s="229" t="n"/>
       <c r="K60" s="41" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="219" t="n"/>
+      <c r="L60" s="229" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="218" t="inlineStr">
+      <c r="B61" s="233" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="191" t="inlineStr">
+      <c r="C61" s="190" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="223" t="inlineStr">
+      <c r="D61" s="228" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -7000,41 +7024,41 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="95" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B62" s="219" t="n"/>
-      <c r="C62" s="192" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B62" s="229" t="n"/>
+      <c r="C62" s="191" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="219" t="n"/>
+      <c r="D62" s="229" t="n"/>
       <c r="E62" s="43" t="n"/>
-      <c r="F62" s="222" t="inlineStr">
+      <c r="F62" s="232" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="213" t="inlineStr">
+      <c r="G62" s="207" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="223" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H62" s="228" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="92" t="n"/>
       <c r="E63" s="44" t="n"/>
-      <c r="F63" s="219" t="n"/>
-      <c r="G63" s="211" t="inlineStr">
+      <c r="F63" s="229" t="n"/>
+      <c r="G63" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="219" t="n"/>
+      <c r="H63" s="229" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="218" t="inlineStr">
+      <c r="B64" s="233" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -7044,54 +7068,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="223" t="inlineStr">
+      <c r="D64" s="228" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="219" t="n"/>
-      <c r="C65" s="193" t="inlineStr">
+      <c r="B65" s="229" t="n"/>
+      <c r="C65" s="192" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="219" t="n"/>
+      <c r="D65" s="229" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -7106,6 +7099,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7124,33 +7148,33 @@
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="239" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="239" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="239" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="239" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="239" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="239" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="239" min="9" max="9"/>
-    <col width="4" customWidth="1" style="239" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="239" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="239" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="239" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="239" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="239" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="239" min="27" max="40"/>
-    <col width="14.42578125" customWidth="1" style="239" min="41" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="243" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="243" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="243" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="243" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="243" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="243" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="243" min="9" max="9"/>
+    <col width="4" customWidth="1" style="243" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="243" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="243" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="243" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="243" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="243" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="243" min="27" max="41"/>
+    <col width="14.42578125" customWidth="1" style="243" min="42" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="230">
-      <c r="C2" s="240" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="217">
+      <c r="C2" s="244" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="230">
+    <row r="4" ht="15" customHeight="1" s="217">
       <c r="C4" s="97" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -7186,7 +7210,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="230">
+    <row r="5" ht="15" customHeight="1" s="217">
       <c r="C5" s="105" t="inlineStr">
         <is>
           <t>Italy</t>
@@ -7210,7 +7234,7 @@
       </c>
       <c r="L5" s="110" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="230">
+    <row r="6" ht="15" customHeight="1" s="217">
       <c r="C6" s="105" t="inlineStr">
         <is>
           <t>Switzerland</t>
@@ -7234,7 +7258,7 @@
       </c>
       <c r="L6" s="110" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="230">
+    <row r="7" ht="15" customHeight="1" s="217">
       <c r="C7" s="105" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -7258,7 +7282,7 @@
       </c>
       <c r="L7" s="110" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="230">
+    <row r="8" ht="15" customHeight="1" s="217">
       <c r="C8" s="111" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -7282,7 +7306,7 @@
       </c>
       <c r="L8" s="116" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="230">
+    <row r="9" ht="15" customHeight="1" s="217">
       <c r="C9" s="99" t="n"/>
       <c r="D9" s="99" t="n"/>
       <c r="E9" s="99" t="n"/>
@@ -7294,7 +7318,7 @@
       <c r="K9" s="99" t="n"/>
       <c r="L9" s="99" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="230">
+    <row r="10" ht="15" customHeight="1" s="217">
       <c r="C10" s="117" t="inlineStr">
         <is>
           <t>Group D</t>
@@ -7330,7 +7354,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="230">
+    <row r="11" ht="15" customHeight="1" s="217">
       <c r="C11" s="123" t="inlineStr">
         <is>
           <t>Croatia</t>
@@ -7354,7 +7378,7 @@
       </c>
       <c r="L11" s="128" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="230">
+    <row r="12" ht="15" customHeight="1" s="217">
       <c r="C12" s="123" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -7378,7 +7402,7 @@
       </c>
       <c r="L12" s="128" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="230">
+    <row r="13" ht="15" customHeight="1" s="217">
       <c r="C13" s="123" t="inlineStr">
         <is>
           <t>England</t>
@@ -7402,7 +7426,7 @@
       </c>
       <c r="L13" s="128" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="230">
+    <row r="14" ht="15" customHeight="1" s="217">
       <c r="C14" s="129" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7426,7 +7450,7 @@
       </c>
       <c r="L14" s="134" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="230">
+    <row r="15" ht="15" customHeight="1" s="217">
       <c r="C15" s="99" t="n"/>
       <c r="D15" s="99" t="n"/>
       <c r="E15" s="99" t="n"/>
@@ -7438,94 +7462,94 @@
       <c r="K15" s="99" t="n"/>
       <c r="L15" s="99" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="230">
-      <c r="C16" s="241" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="217">
+      <c r="C16" s="245" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="242" t="n"/>
-      <c r="E16" s="242" t="n"/>
-      <c r="F16" s="242" t="n"/>
-      <c r="G16" s="242" t="n"/>
-      <c r="H16" s="242" t="n"/>
-      <c r="I16" s="242" t="n"/>
-      <c r="J16" s="242" t="n"/>
-      <c r="K16" s="242" t="n"/>
-      <c r="L16" s="242" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="230">
+      <c r="D16" s="246" t="n"/>
+      <c r="E16" s="246" t="n"/>
+      <c r="F16" s="246" t="n"/>
+      <c r="G16" s="246" t="n"/>
+      <c r="H16" s="246" t="n"/>
+      <c r="I16" s="246" t="n"/>
+      <c r="J16" s="246" t="n"/>
+      <c r="K16" s="246" t="n"/>
+      <c r="L16" s="246" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="217">
       <c r="C17" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="243" t="n"/>
-      <c r="E17" s="244" t="n"/>
-      <c r="F17" s="244" t="n"/>
-      <c r="G17" s="245" t="n"/>
-      <c r="H17" s="246" t="inlineStr">
+      <c r="D17" s="247" t="n"/>
+      <c r="E17" s="248" t="n"/>
+      <c r="F17" s="248" t="n"/>
+      <c r="G17" s="249" t="n"/>
+      <c r="H17" s="250" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="244" t="n"/>
-      <c r="J17" s="244" t="n"/>
-      <c r="K17" s="244" t="n"/>
-      <c r="L17" s="245" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="230">
+      <c r="I17" s="248" t="n"/>
+      <c r="J17" s="248" t="n"/>
+      <c r="K17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="217">
       <c r="C18" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="249" t="n"/>
-      <c r="E18" s="242" t="n"/>
-      <c r="F18" s="242" t="n"/>
-      <c r="G18" s="248" t="n"/>
-      <c r="H18" s="247" t="n"/>
-      <c r="I18" s="242" t="n"/>
-      <c r="J18" s="242" t="n"/>
-      <c r="K18" s="242" t="n"/>
-      <c r="L18" s="248" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="230">
+      <c r="D18" s="253" t="n"/>
+      <c r="E18" s="246" t="n"/>
+      <c r="F18" s="246" t="n"/>
+      <c r="G18" s="252" t="n"/>
+      <c r="H18" s="251" t="n"/>
+      <c r="I18" s="246" t="n"/>
+      <c r="J18" s="246" t="n"/>
+      <c r="K18" s="246" t="n"/>
+      <c r="L18" s="252" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="217">
       <c r="C19" s="99" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="230">
+    <row r="20" ht="15" customHeight="1" s="217">
       <c r="A20" s="137" t="n"/>
       <c r="B20" s="137" t="n"/>
-      <c r="C20" s="250" t="inlineStr">
+      <c r="C20" s="254" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="244" t="n"/>
+      <c r="D20" s="248" t="n"/>
       <c r="E20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="238" t="n"/>
-      <c r="G20" s="250" t="inlineStr">
+      <c r="F20" s="242" t="n"/>
+      <c r="G20" s="254" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="244" t="n"/>
+      <c r="H20" s="248" t="n"/>
       <c r="I20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="238" t="n"/>
-      <c r="K20" s="250" t="inlineStr">
+      <c r="J20" s="242" t="n"/>
+      <c r="K20" s="254" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="244" t="n"/>
+      <c r="L20" s="248" t="n"/>
       <c r="M20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7545,7 +7569,7 @@
       <c r="Y20" s="137" t="n"/>
       <c r="Z20" s="137" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="230">
+    <row r="21" ht="15" customHeight="1" s="217">
       <c r="C21" s="139" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -7586,7 +7610,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="230">
+    <row r="22" ht="15" customHeight="1" s="217">
       <c r="C22" s="147" t="n"/>
       <c r="D22" s="142" t="n"/>
       <c r="E22" s="148" t="n"/>
@@ -7619,7 +7643,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="230">
+    <row r="23" ht="15" customHeight="1" s="217">
       <c r="C23" s="139" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -7648,7 +7672,7 @@
       <c r="L23" s="142" t="n"/>
       <c r="M23" s="148" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="230">
+    <row r="24" ht="15" customHeight="1" s="217">
       <c r="C24" s="143" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -7681,7 +7705,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="230">
+    <row r="25" ht="15" customHeight="1" s="217">
       <c r="C25" s="143" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -7726,7 +7750,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="230">
+    <row r="26" ht="15" customHeight="1" s="217">
       <c r="C26" s="147" t="n"/>
       <c r="D26" s="142" t="n"/>
       <c r="E26" s="148" t="n"/>
@@ -7763,7 +7787,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="230">
+    <row r="27" ht="15" customHeight="1" s="217">
       <c r="C27" s="152" t="inlineStr">
         <is>
           <t>England</t>
@@ -7808,7 +7832,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="230">
+    <row r="28" ht="15" customHeight="1" s="217">
       <c r="C28" s="149" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7829,7 +7853,7 @@
       <c r="L28" s="142" t="n"/>
       <c r="M28" s="148" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="230">
+    <row r="29" ht="15" customHeight="1" s="217">
       <c r="C29" s="149" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7874,7 +7898,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="230">
+    <row r="30" ht="15" customHeight="1" s="217">
       <c r="C30" s="147" t="n"/>
       <c r="D30" s="142" t="n"/>
       <c r="E30" s="148" t="n"/>
@@ -7911,7 +7935,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="230">
+    <row r="31" ht="15" customHeight="1" s="217">
       <c r="C31" s="152" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7944,7 +7968,7 @@
       <c r="L31" s="142" t="n"/>
       <c r="M31" s="148" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" s="230">
+    <row r="32" ht="15" customHeight="1" s="217">
       <c r="C32" s="155" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -7977,7 +8001,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="230">
+    <row r="33" ht="15" customHeight="1" s="217">
       <c r="C33" s="155" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -8022,7 +8046,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="230">
+    <row r="34" ht="15" customHeight="1" s="217">
       <c r="C34" s="147" t="n"/>
       <c r="D34" s="142" t="n"/>
       <c r="E34" s="148" t="n"/>
@@ -8059,7 +8083,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="230">
+    <row r="35" ht="15" customHeight="1" s="217">
       <c r="C35" s="158" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -8104,7 +8128,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="230">
+    <row r="36" ht="15" customHeight="1" s="217">
       <c r="C36" s="161" t="inlineStr">
         <is>
           <t>France</t>
@@ -8125,69 +8149,69 @@
       <c r="L36" s="165" t="n"/>
       <c r="M36" s="166" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1" s="230">
-      <c r="C38" s="241" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="217">
+      <c r="C38" s="245" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="242" t="n"/>
-      <c r="E38" s="242" t="n"/>
-      <c r="F38" s="242" t="n"/>
-      <c r="G38" s="242" t="n"/>
-      <c r="H38" s="242" t="n"/>
-      <c r="I38" s="242" t="n"/>
-      <c r="J38" s="242" t="n"/>
-      <c r="K38" s="242" t="n"/>
-      <c r="L38" s="242" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="230">
+      <c r="D38" s="246" t="n"/>
+      <c r="E38" s="246" t="n"/>
+      <c r="F38" s="246" t="n"/>
+      <c r="G38" s="246" t="n"/>
+      <c r="H38" s="246" t="n"/>
+      <c r="I38" s="246" t="n"/>
+      <c r="J38" s="246" t="n"/>
+      <c r="K38" s="246" t="n"/>
+      <c r="L38" s="246" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="217">
       <c r="C39" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="243" t="n"/>
-      <c r="E39" s="244" t="n"/>
-      <c r="F39" s="244" t="n"/>
-      <c r="G39" s="245" t="n"/>
-      <c r="H39" s="246" t="inlineStr">
+      <c r="D39" s="247" t="n"/>
+      <c r="E39" s="248" t="n"/>
+      <c r="F39" s="248" t="n"/>
+      <c r="G39" s="249" t="n"/>
+      <c r="H39" s="250" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="244" t="n"/>
-      <c r="J39" s="244" t="n"/>
-      <c r="K39" s="244" t="n"/>
-      <c r="L39" s="245" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="230">
+      <c r="I39" s="248" t="n"/>
+      <c r="J39" s="248" t="n"/>
+      <c r="K39" s="248" t="n"/>
+      <c r="L39" s="249" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="217">
       <c r="C40" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="249" t="n"/>
-      <c r="E40" s="242" t="n"/>
-      <c r="F40" s="242" t="n"/>
-      <c r="G40" s="248" t="n"/>
-      <c r="H40" s="247" t="n"/>
-      <c r="I40" s="242" t="n"/>
-      <c r="J40" s="242" t="n"/>
-      <c r="K40" s="242" t="n"/>
-      <c r="L40" s="248" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="230">
+      <c r="D40" s="253" t="n"/>
+      <c r="E40" s="246" t="n"/>
+      <c r="F40" s="246" t="n"/>
+      <c r="G40" s="252" t="n"/>
+      <c r="H40" s="251" t="n"/>
+      <c r="I40" s="246" t="n"/>
+      <c r="J40" s="246" t="n"/>
+      <c r="K40" s="246" t="n"/>
+      <c r="L40" s="252" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="217">
       <c r="B41" s="167" t="n"/>
       <c r="C41" s="168" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="230">
-      <c r="B42" s="251" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="217">
+      <c r="B42" s="255" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="242" t="n"/>
+      <c r="C42" s="246" t="n"/>
       <c r="D42" s="169" t="inlineStr">
         <is>
           <t>Results</t>
@@ -8231,22 +8255,22 @@
       </c>
       <c r="Q42" s="137" t="n"/>
       <c r="R42" s="170" t="n"/>
-      <c r="S42" s="238" t="n"/>
+      <c r="S42" s="242" t="n"/>
       <c r="U42" s="137" t="n"/>
       <c r="V42" s="170" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="230">
-      <c r="B43" s="252" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="217">
+      <c r="B43" s="236" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C43" s="194" t="inlineStr">
+      <c r="C43" s="193" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="254" t="inlineStr">
+      <c r="D43" s="238" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -8262,26 +8286,26 @@
       <c r="U43" s="170" t="n"/>
       <c r="V43" s="170" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B44" s="253" t="n"/>
-      <c r="C44" s="195" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B44" s="237" t="n"/>
+      <c r="C44" s="194" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="253" t="n"/>
+      <c r="D44" s="237" t="n"/>
       <c r="E44" s="171" t="n"/>
-      <c r="F44" s="255" t="inlineStr">
+      <c r="F44" s="240" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="214" t="inlineStr">
+      <c r="G44" s="208" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="254" t="n"/>
+      <c r="H44" s="238" t="n"/>
       <c r="O44" s="170" t="n"/>
       <c r="P44" s="170" t="n"/>
       <c r="Q44" s="170" t="n"/>
@@ -8291,18 +8315,18 @@
       <c r="U44" s="170" t="n"/>
       <c r="V44" s="170" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B45" s="137" t="n"/>
       <c r="C45" s="170" t="n"/>
       <c r="D45" s="173" t="n"/>
       <c r="E45" s="174" t="n"/>
-      <c r="F45" s="253" t="n"/>
-      <c r="G45" s="215" t="inlineStr">
+      <c r="F45" s="237" t="n"/>
+      <c r="G45" s="209" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="253" t="n"/>
+      <c r="H45" s="237" t="n"/>
       <c r="O45" s="170" t="n"/>
       <c r="P45" s="170" t="n"/>
       <c r="Q45" s="170" t="n"/>
@@ -8312,18 +8336,18 @@
       <c r="U45" s="170" t="n"/>
       <c r="V45" s="170" t="n"/>
     </row>
-    <row r="46" ht="15" customHeight="1" s="230">
-      <c r="B46" s="252" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="217">
+      <c r="B46" s="236" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="C46" s="196" t="inlineStr">
+      <c r="C46" s="195" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="254" t="inlineStr">
+      <c r="D46" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8341,20 +8365,20 @@
       <c r="U46" s="170" t="n"/>
       <c r="V46" s="170" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B47" s="253" t="n"/>
-      <c r="C47" s="197" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B47" s="237" t="n"/>
+      <c r="C47" s="196" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="253" t="n"/>
+      <c r="D47" s="237" t="n"/>
       <c r="E47" s="170" t="n"/>
       <c r="F47" s="170" t="n"/>
       <c r="G47" s="176" t="n"/>
       <c r="H47" s="178" t="n"/>
       <c r="I47" s="174" t="n"/>
-      <c r="J47" s="256" t="inlineStr">
+      <c r="J47" s="239" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -8364,16 +8388,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="254" t="n"/>
+      <c r="L47" s="238" t="n"/>
       <c r="O47" s="170" t="n"/>
       <c r="P47" s="170" t="n"/>
       <c r="Q47" s="170" t="n"/>
       <c r="R47" s="170" t="n"/>
-      <c r="S47" s="238" t="n"/>
+      <c r="S47" s="242" t="n"/>
       <c r="U47" s="137" t="n"/>
       <c r="V47" s="170" t="n"/>
     </row>
-    <row r="48" ht="15" customHeight="1" s="230">
+    <row r="48" ht="15" customHeight="1" s="217">
       <c r="B48" s="137" t="n"/>
       <c r="C48" s="170" t="n"/>
       <c r="D48" s="173" t="n"/>
@@ -8381,13 +8405,13 @@
       <c r="F48" s="170" t="n"/>
       <c r="G48" s="176" t="n"/>
       <c r="H48" s="178" t="n"/>
-      <c r="J48" s="253" t="n"/>
+      <c r="J48" s="237" t="n"/>
       <c r="K48" s="164" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="253" t="n"/>
+      <c r="L48" s="237" t="n"/>
       <c r="O48" s="170" t="n"/>
       <c r="P48" s="170" t="n"/>
       <c r="Q48" s="170" t="n"/>
@@ -8397,18 +8421,18 @@
       <c r="U48" s="170" t="n"/>
       <c r="V48" s="170" t="n"/>
     </row>
-    <row r="49" ht="15" customHeight="1" s="230">
-      <c r="B49" s="252" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="217">
+      <c r="B49" s="236" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C49" s="198" t="inlineStr">
+      <c r="C49" s="197" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="254" t="inlineStr">
+      <c r="D49" s="238" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -8420,56 +8444,56 @@
       <c r="K49" s="142" t="n"/>
       <c r="L49" s="177" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B50" s="253" t="n"/>
-      <c r="C50" s="199" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B50" s="237" t="n"/>
+      <c r="C50" s="198" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="253" t="n"/>
+      <c r="D50" s="237" t="n"/>
       <c r="E50" s="174" t="n"/>
-      <c r="F50" s="255" t="inlineStr">
+      <c r="F50" s="240" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="214" t="inlineStr">
+      <c r="G50" s="208" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="254" t="n"/>
+      <c r="H50" s="238" t="n"/>
       <c r="K50" s="142" t="n"/>
       <c r="L50" s="178" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B51" s="137" t="n"/>
       <c r="C51" s="170" t="n"/>
       <c r="D51" s="173" t="n"/>
       <c r="E51" s="174" t="n"/>
-      <c r="F51" s="253" t="n"/>
-      <c r="G51" s="216" t="inlineStr">
+      <c r="F51" s="237" t="n"/>
+      <c r="G51" s="210" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="253" t="n"/>
+      <c r="H51" s="237" t="n"/>
       <c r="K51" s="142" t="n"/>
       <c r="L51" s="178" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B52" s="252" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B52" s="236" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="C52" s="200" t="inlineStr">
+      <c r="C52" s="199" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="254" t="inlineStr">
+      <c r="D52" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8481,7 +8505,7 @@
       <c r="K52" s="142" t="n"/>
       <c r="L52" s="178" t="n"/>
       <c r="M52" s="174" t="n"/>
-      <c r="N52" s="257" t="inlineStr">
+      <c r="N52" s="241" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -8491,31 +8515,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="254" t="n"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" s="230">
-      <c r="B53" s="253" t="n"/>
-      <c r="C53" s="216" t="inlineStr">
+      <c r="P52" s="238" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="217">
+      <c r="B53" s="237" t="n"/>
+      <c r="C53" s="210" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="253" t="n"/>
+      <c r="D53" s="237" t="n"/>
       <c r="E53" s="170" t="n"/>
       <c r="F53" s="170" t="n"/>
       <c r="G53" s="176" t="n"/>
       <c r="H53" s="173" t="n"/>
       <c r="K53" s="142" t="n"/>
       <c r="L53" s="178" t="n"/>
-      <c r="N53" s="253" t="n"/>
+      <c r="N53" s="237" t="n"/>
       <c r="O53" s="164" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="253" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="230">
+      <c r="P53" s="237" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="217">
       <c r="B54" s="137" t="n"/>
       <c r="C54" s="170" t="n"/>
       <c r="D54" s="173" t="n"/>
@@ -8526,18 +8550,18 @@
       <c r="K54" s="142" t="n"/>
       <c r="L54" s="178" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="230">
-      <c r="B55" s="252" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="217">
+      <c r="B55" s="236" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="202" t="inlineStr">
+      <c r="C55" s="200" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="254" t="inlineStr">
+      <c r="D55" s="238" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8549,55 +8573,55 @@
       <c r="K55" s="142" t="n"/>
       <c r="L55" s="178" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B56" s="253" t="n"/>
-      <c r="C56" s="195" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B56" s="237" t="n"/>
+      <c r="C56" s="194" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="253" t="n"/>
+      <c r="D56" s="237" t="n"/>
       <c r="E56" s="171" t="n"/>
-      <c r="F56" s="255" t="inlineStr">
+      <c r="F56" s="240" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="172" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="254" t="n"/>
+      <c r="G56" s="258" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="238" t="n"/>
       <c r="K56" s="142" t="n"/>
       <c r="L56" s="178" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B57" s="137" t="n"/>
       <c r="D57" s="173" t="n"/>
       <c r="E57" s="181" t="n"/>
-      <c r="F57" s="253" t="n"/>
-      <c r="G57" s="175" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="253" t="n"/>
+      <c r="F57" s="237" t="n"/>
+      <c r="G57" s="259" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="237" t="n"/>
       <c r="K57" s="142" t="n"/>
       <c r="L57" s="178" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" s="230">
-      <c r="B58" s="252" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="217">
+      <c r="B58" s="236" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="C58" s="200" t="inlineStr">
+      <c r="C58" s="199" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="254" t="inlineStr">
+      <c r="D58" s="238" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8607,18 +8631,18 @@
       <c r="K58" s="142" t="n"/>
       <c r="L58" s="180" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B59" s="253" t="n"/>
-      <c r="C59" s="197" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B59" s="237" t="n"/>
+      <c r="C59" s="196" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="253" t="n"/>
+      <c r="D59" s="237" t="n"/>
       <c r="G59" s="176" t="n"/>
       <c r="H59" s="178" t="n"/>
       <c r="I59" s="174" t="n"/>
-      <c r="J59" s="256" t="inlineStr">
+      <c r="J59" s="239" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -8628,33 +8652,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="254" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="230">
+      <c r="L59" s="238" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="217">
       <c r="B60" s="137" t="n"/>
       <c r="D60" s="173" t="n"/>
       <c r="G60" s="176" t="n"/>
       <c r="H60" s="178" t="n"/>
-      <c r="J60" s="253" t="n"/>
+      <c r="J60" s="237" t="n"/>
       <c r="K60" s="164" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="253" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="230">
-      <c r="B61" s="252" t="inlineStr">
+      <c r="L60" s="237" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="217">
+      <c r="B61" s="236" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="203" t="inlineStr">
+      <c r="C61" s="201" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="254" t="inlineStr">
+      <c r="D61" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8662,98 +8686,67 @@
       <c r="G61" s="176" t="n"/>
       <c r="H61" s="180" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B62" s="253" t="n"/>
-      <c r="C62" s="204" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B62" s="237" t="n"/>
+      <c r="C62" s="202" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="253" t="n"/>
+      <c r="D62" s="237" t="n"/>
       <c r="E62" s="171" t="n"/>
-      <c r="F62" s="255" t="inlineStr">
+      <c r="F62" s="240" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="217" t="inlineStr">
+      <c r="G62" s="211" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="254" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H62" s="238" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B63" s="137" t="n"/>
       <c r="D63" s="173" t="n"/>
       <c r="E63" s="181" t="n"/>
-      <c r="F63" s="253" t="n"/>
-      <c r="G63" s="215" t="inlineStr">
+      <c r="F63" s="237" t="n"/>
+      <c r="G63" s="209" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="253" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1" s="230">
-      <c r="B64" s="252" t="inlineStr">
+      <c r="H63" s="237" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="217">
+      <c r="B64" s="236" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="C64" s="194" t="inlineStr">
+      <c r="C64" s="193" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="254" t="inlineStr">
+      <c r="D64" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="230">
-      <c r="B65" s="253" t="n"/>
-      <c r="C65" s="205" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="217">
+      <c r="B65" s="237" t="n"/>
+      <c r="C65" s="203" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="253" t="n"/>
+      <c r="D65" s="237" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8768,6 +8761,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8786,33 +8810,33 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="239" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="239" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="239" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="239" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="239" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="239" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="239" min="9" max="9"/>
-    <col width="4" customWidth="1" style="239" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="239" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="239" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="239" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="239" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="239" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="239" min="27" max="40"/>
-    <col width="14.42578125" customWidth="1" style="239" min="41" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="243" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="243" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="243" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="243" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="243" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="243" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="243" min="9" max="9"/>
+    <col width="4" customWidth="1" style="243" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="243" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="243" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="243" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="243" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="243" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="243" min="27" max="41"/>
+    <col width="14.42578125" customWidth="1" style="243" min="42" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="230">
-      <c r="C2" s="240" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="217">
+      <c r="C2" s="244" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="230">
+    <row r="4" ht="15" customHeight="1" s="217">
       <c r="C4" s="97" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -8848,7 +8872,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="230">
+    <row r="5" ht="15" customHeight="1" s="217">
       <c r="C5" s="105" t="inlineStr">
         <is>
           <t>Italy</t>
@@ -8872,7 +8896,7 @@
       </c>
       <c r="L5" s="110" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="230">
+    <row r="6" ht="15" customHeight="1" s="217">
       <c r="C6" s="105" t="inlineStr">
         <is>
           <t>Switzerland</t>
@@ -8896,7 +8920,7 @@
       </c>
       <c r="L6" s="110" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="230">
+    <row r="7" ht="15" customHeight="1" s="217">
       <c r="C7" s="105" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -8920,7 +8944,7 @@
       </c>
       <c r="L7" s="110" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="230">
+    <row r="8" ht="15" customHeight="1" s="217">
       <c r="C8" s="111" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -8944,7 +8968,7 @@
       </c>
       <c r="L8" s="116" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="230">
+    <row r="9" ht="15" customHeight="1" s="217">
       <c r="C9" s="99" t="n"/>
       <c r="D9" s="99" t="n"/>
       <c r="E9" s="99" t="n"/>
@@ -8956,7 +8980,7 @@
       <c r="K9" s="99" t="n"/>
       <c r="L9" s="99" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="230">
+    <row r="10" ht="15" customHeight="1" s="217">
       <c r="C10" s="117" t="inlineStr">
         <is>
           <t>Group D</t>
@@ -8992,7 +9016,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="230">
+    <row r="11" ht="15" customHeight="1" s="217">
       <c r="C11" s="123" t="inlineStr">
         <is>
           <t>Croatia</t>
@@ -9016,7 +9040,7 @@
       </c>
       <c r="L11" s="128" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="230">
+    <row r="12" ht="15" customHeight="1" s="217">
       <c r="C12" s="123" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -9040,7 +9064,7 @@
       </c>
       <c r="L12" s="128" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="230">
+    <row r="13" ht="15" customHeight="1" s="217">
       <c r="C13" s="123" t="inlineStr">
         <is>
           <t>England</t>
@@ -9064,7 +9088,7 @@
       </c>
       <c r="L13" s="128" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="230">
+    <row r="14" ht="15" customHeight="1" s="217">
       <c r="C14" s="129" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -9088,7 +9112,7 @@
       </c>
       <c r="L14" s="134" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="230">
+    <row r="15" ht="15" customHeight="1" s="217">
       <c r="C15" s="99" t="n"/>
       <c r="D15" s="99" t="n"/>
       <c r="E15" s="99" t="n"/>
@@ -9100,94 +9124,94 @@
       <c r="K15" s="99" t="n"/>
       <c r="L15" s="99" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="230">
-      <c r="C16" s="241" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="217">
+      <c r="C16" s="245" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="242" t="n"/>
-      <c r="E16" s="242" t="n"/>
-      <c r="F16" s="242" t="n"/>
-      <c r="G16" s="242" t="n"/>
-      <c r="H16" s="242" t="n"/>
-      <c r="I16" s="242" t="n"/>
-      <c r="J16" s="242" t="n"/>
-      <c r="K16" s="242" t="n"/>
-      <c r="L16" s="242" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="230">
+      <c r="D16" s="246" t="n"/>
+      <c r="E16" s="246" t="n"/>
+      <c r="F16" s="246" t="n"/>
+      <c r="G16" s="246" t="n"/>
+      <c r="H16" s="246" t="n"/>
+      <c r="I16" s="246" t="n"/>
+      <c r="J16" s="246" t="n"/>
+      <c r="K16" s="246" t="n"/>
+      <c r="L16" s="246" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="217">
       <c r="C17" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="243" t="n"/>
-      <c r="E17" s="244" t="n"/>
-      <c r="F17" s="244" t="n"/>
-      <c r="G17" s="245" t="n"/>
-      <c r="H17" s="246" t="inlineStr">
+      <c r="D17" s="247" t="n"/>
+      <c r="E17" s="248" t="n"/>
+      <c r="F17" s="248" t="n"/>
+      <c r="G17" s="249" t="n"/>
+      <c r="H17" s="250" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="244" t="n"/>
-      <c r="J17" s="244" t="n"/>
-      <c r="K17" s="244" t="n"/>
-      <c r="L17" s="245" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="230">
+      <c r="I17" s="248" t="n"/>
+      <c r="J17" s="248" t="n"/>
+      <c r="K17" s="248" t="n"/>
+      <c r="L17" s="249" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="217">
       <c r="C18" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="249" t="n"/>
-      <c r="E18" s="242" t="n"/>
-      <c r="F18" s="242" t="n"/>
-      <c r="G18" s="248" t="n"/>
-      <c r="H18" s="247" t="n"/>
-      <c r="I18" s="242" t="n"/>
-      <c r="J18" s="242" t="n"/>
-      <c r="K18" s="242" t="n"/>
-      <c r="L18" s="248" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="230">
+      <c r="D18" s="253" t="n"/>
+      <c r="E18" s="246" t="n"/>
+      <c r="F18" s="246" t="n"/>
+      <c r="G18" s="252" t="n"/>
+      <c r="H18" s="251" t="n"/>
+      <c r="I18" s="246" t="n"/>
+      <c r="J18" s="246" t="n"/>
+      <c r="K18" s="246" t="n"/>
+      <c r="L18" s="252" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="217">
       <c r="C19" s="99" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="230">
+    <row r="20" ht="15" customHeight="1" s="217">
       <c r="A20" s="137" t="n"/>
       <c r="B20" s="137" t="n"/>
-      <c r="C20" s="250" t="inlineStr">
+      <c r="C20" s="254" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="244" t="n"/>
+      <c r="D20" s="248" t="n"/>
       <c r="E20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="238" t="n"/>
-      <c r="G20" s="250" t="inlineStr">
+      <c r="F20" s="242" t="n"/>
+      <c r="G20" s="254" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="244" t="n"/>
+      <c r="H20" s="248" t="n"/>
       <c r="I20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="238" t="n"/>
-      <c r="K20" s="250" t="inlineStr">
+      <c r="J20" s="242" t="n"/>
+      <c r="K20" s="254" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="244" t="n"/>
+      <c r="L20" s="248" t="n"/>
       <c r="M20" s="138" t="inlineStr">
         <is>
           <t>Results</t>
@@ -9207,7 +9231,7 @@
       <c r="Y20" s="137" t="n"/>
       <c r="Z20" s="137" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="230">
+    <row r="21" ht="15" customHeight="1" s="217">
       <c r="C21" s="139" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -9248,7 +9272,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="230">
+    <row r="22" ht="15" customHeight="1" s="217">
       <c r="C22" s="147" t="n"/>
       <c r="D22" s="142" t="n"/>
       <c r="E22" s="148" t="n"/>
@@ -9281,7 +9305,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="230">
+    <row r="23" ht="15" customHeight="1" s="217">
       <c r="C23" s="139" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -9310,7 +9334,7 @@
       <c r="L23" s="142" t="n"/>
       <c r="M23" s="148" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="230">
+    <row r="24" ht="15" customHeight="1" s="217">
       <c r="C24" s="143" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -9343,7 +9367,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="230">
+    <row r="25" ht="15" customHeight="1" s="217">
       <c r="C25" s="143" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -9388,7 +9412,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="230">
+    <row r="26" ht="15" customHeight="1" s="217">
       <c r="C26" s="147" t="n"/>
       <c r="D26" s="142" t="n"/>
       <c r="E26" s="148" t="n"/>
@@ -9425,7 +9449,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="230">
+    <row r="27" ht="15" customHeight="1" s="217">
       <c r="C27" s="152" t="inlineStr">
         <is>
           <t>England</t>
@@ -9470,7 +9494,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="230">
+    <row r="28" ht="15" customHeight="1" s="217">
       <c r="C28" s="149" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -9491,7 +9515,7 @@
       <c r="L28" s="142" t="n"/>
       <c r="M28" s="148" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="230">
+    <row r="29" ht="15" customHeight="1" s="217">
       <c r="C29" s="149" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -9536,7 +9560,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="230">
+    <row r="30" ht="15" customHeight="1" s="217">
       <c r="C30" s="147" t="n"/>
       <c r="D30" s="142" t="n"/>
       <c r="E30" s="148" t="n"/>
@@ -9573,7 +9597,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="230">
+    <row r="31" ht="15" customHeight="1" s="217">
       <c r="C31" s="152" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -9606,7 +9630,7 @@
       <c r="L31" s="142" t="n"/>
       <c r="M31" s="148" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" s="230">
+    <row r="32" ht="15" customHeight="1" s="217">
       <c r="C32" s="155" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -9639,7 +9663,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="230">
+    <row r="33" ht="15" customHeight="1" s="217">
       <c r="C33" s="155" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -9684,7 +9708,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="230">
+    <row r="34" ht="15" customHeight="1" s="217">
       <c r="C34" s="147" t="n"/>
       <c r="D34" s="142" t="n"/>
       <c r="E34" s="148" t="n"/>
@@ -9721,7 +9745,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="230">
+    <row r="35" ht="15" customHeight="1" s="217">
       <c r="C35" s="158" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -9766,7 +9790,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="230">
+    <row r="36" ht="15" customHeight="1" s="217">
       <c r="C36" s="161" t="inlineStr">
         <is>
           <t>France</t>
@@ -9787,69 +9811,69 @@
       <c r="L36" s="165" t="n"/>
       <c r="M36" s="166" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1" s="230">
-      <c r="C38" s="241" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="217">
+      <c r="C38" s="245" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="242" t="n"/>
-      <c r="E38" s="242" t="n"/>
-      <c r="F38" s="242" t="n"/>
-      <c r="G38" s="242" t="n"/>
-      <c r="H38" s="242" t="n"/>
-      <c r="I38" s="242" t="n"/>
-      <c r="J38" s="242" t="n"/>
-      <c r="K38" s="242" t="n"/>
-      <c r="L38" s="242" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="230">
+      <c r="D38" s="246" t="n"/>
+      <c r="E38" s="246" t="n"/>
+      <c r="F38" s="246" t="n"/>
+      <c r="G38" s="246" t="n"/>
+      <c r="H38" s="246" t="n"/>
+      <c r="I38" s="246" t="n"/>
+      <c r="J38" s="246" t="n"/>
+      <c r="K38" s="246" t="n"/>
+      <c r="L38" s="246" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="217">
       <c r="C39" s="135" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="243" t="n"/>
-      <c r="E39" s="244" t="n"/>
-      <c r="F39" s="244" t="n"/>
-      <c r="G39" s="245" t="n"/>
-      <c r="H39" s="246" t="inlineStr">
+      <c r="D39" s="247" t="n"/>
+      <c r="E39" s="248" t="n"/>
+      <c r="F39" s="248" t="n"/>
+      <c r="G39" s="249" t="n"/>
+      <c r="H39" s="250" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="244" t="n"/>
-      <c r="J39" s="244" t="n"/>
-      <c r="K39" s="244" t="n"/>
-      <c r="L39" s="245" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="230">
+      <c r="I39" s="248" t="n"/>
+      <c r="J39" s="248" t="n"/>
+      <c r="K39" s="248" t="n"/>
+      <c r="L39" s="249" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="217">
       <c r="C40" s="136" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="249" t="n"/>
-      <c r="E40" s="242" t="n"/>
-      <c r="F40" s="242" t="n"/>
-      <c r="G40" s="248" t="n"/>
-      <c r="H40" s="247" t="n"/>
-      <c r="I40" s="242" t="n"/>
-      <c r="J40" s="242" t="n"/>
-      <c r="K40" s="242" t="n"/>
-      <c r="L40" s="248" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="230">
+      <c r="D40" s="253" t="n"/>
+      <c r="E40" s="246" t="n"/>
+      <c r="F40" s="246" t="n"/>
+      <c r="G40" s="252" t="n"/>
+      <c r="H40" s="251" t="n"/>
+      <c r="I40" s="246" t="n"/>
+      <c r="J40" s="246" t="n"/>
+      <c r="K40" s="246" t="n"/>
+      <c r="L40" s="252" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="217">
       <c r="B41" s="167" t="n"/>
       <c r="C41" s="168" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="230">
-      <c r="B42" s="251" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="217">
+      <c r="B42" s="255" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="242" t="n"/>
+      <c r="C42" s="246" t="n"/>
       <c r="D42" s="169" t="inlineStr">
         <is>
           <t>Results</t>
@@ -9893,22 +9917,22 @@
       </c>
       <c r="Q42" s="137" t="n"/>
       <c r="R42" s="170" t="n"/>
-      <c r="S42" s="238" t="n"/>
+      <c r="S42" s="242" t="n"/>
       <c r="U42" s="137" t="n"/>
       <c r="V42" s="170" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="230">
-      <c r="B43" s="252" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="217">
+      <c r="B43" s="236" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C43" s="194" t="inlineStr">
+      <c r="C43" s="193" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="254" t="inlineStr">
+      <c r="D43" s="238" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -9924,26 +9948,26 @@
       <c r="U43" s="170" t="n"/>
       <c r="V43" s="170" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B44" s="253" t="n"/>
-      <c r="C44" s="195" t="inlineStr">
+    <row r="44" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B44" s="237" t="n"/>
+      <c r="C44" s="194" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="253" t="n"/>
+      <c r="D44" s="237" t="n"/>
       <c r="E44" s="171" t="n"/>
-      <c r="F44" s="255" t="inlineStr">
+      <c r="F44" s="240" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
       </c>
-      <c r="G44" s="214" t="inlineStr">
+      <c r="G44" s="208" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="254" t="n"/>
+      <c r="H44" s="238" t="n"/>
       <c r="O44" s="170" t="n"/>
       <c r="P44" s="170" t="n"/>
       <c r="Q44" s="170" t="n"/>
@@ -9953,18 +9977,18 @@
       <c r="U44" s="170" t="n"/>
       <c r="V44" s="170" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B45" s="137" t="n"/>
       <c r="C45" s="170" t="n"/>
       <c r="D45" s="173" t="n"/>
       <c r="E45" s="174" t="n"/>
-      <c r="F45" s="253" t="n"/>
-      <c r="G45" s="215" t="inlineStr">
+      <c r="F45" s="237" t="n"/>
+      <c r="G45" s="209" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="253" t="n"/>
+      <c r="H45" s="237" t="n"/>
       <c r="O45" s="170" t="n"/>
       <c r="P45" s="170" t="n"/>
       <c r="Q45" s="170" t="n"/>
@@ -9974,18 +9998,18 @@
       <c r="U45" s="170" t="n"/>
       <c r="V45" s="170" t="n"/>
     </row>
-    <row r="46" ht="15" customHeight="1" s="230">
-      <c r="B46" s="252" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="217">
+      <c r="B46" s="236" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="C46" s="196" t="inlineStr">
+      <c r="C46" s="195" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="254" t="inlineStr">
+      <c r="D46" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -10003,20 +10027,20 @@
       <c r="U46" s="170" t="n"/>
       <c r="V46" s="170" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B47" s="253" t="n"/>
-      <c r="C47" s="197" t="inlineStr">
+    <row r="47" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B47" s="237" t="n"/>
+      <c r="C47" s="196" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="253" t="n"/>
+      <c r="D47" s="237" t="n"/>
       <c r="E47" s="170" t="n"/>
       <c r="F47" s="170" t="n"/>
       <c r="G47" s="176" t="n"/>
       <c r="H47" s="178" t="n"/>
       <c r="I47" s="174" t="n"/>
-      <c r="J47" s="256" t="inlineStr">
+      <c r="J47" s="239" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
@@ -10026,16 +10050,16 @@
           <t>Winner QF1</t>
         </is>
       </c>
-      <c r="L47" s="254" t="n"/>
+      <c r="L47" s="238" t="n"/>
       <c r="O47" s="170" t="n"/>
       <c r="P47" s="170" t="n"/>
       <c r="Q47" s="170" t="n"/>
       <c r="R47" s="170" t="n"/>
-      <c r="S47" s="238" t="n"/>
+      <c r="S47" s="242" t="n"/>
       <c r="U47" s="137" t="n"/>
       <c r="V47" s="170" t="n"/>
     </row>
-    <row r="48" ht="15" customHeight="1" s="230">
+    <row r="48" ht="15" customHeight="1" s="217">
       <c r="B48" s="137" t="n"/>
       <c r="C48" s="170" t="n"/>
       <c r="D48" s="173" t="n"/>
@@ -10043,13 +10067,13 @@
       <c r="F48" s="170" t="n"/>
       <c r="G48" s="176" t="n"/>
       <c r="H48" s="178" t="n"/>
-      <c r="J48" s="253" t="n"/>
+      <c r="J48" s="237" t="n"/>
       <c r="K48" s="164" t="inlineStr">
         <is>
           <t>Winner QF2</t>
         </is>
       </c>
-      <c r="L48" s="253" t="n"/>
+      <c r="L48" s="237" t="n"/>
       <c r="O48" s="170" t="n"/>
       <c r="P48" s="170" t="n"/>
       <c r="Q48" s="170" t="n"/>
@@ -10059,18 +10083,18 @@
       <c r="U48" s="170" t="n"/>
       <c r="V48" s="170" t="n"/>
     </row>
-    <row r="49" ht="15" customHeight="1" s="230">
-      <c r="B49" s="252" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="217">
+      <c r="B49" s="236" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="C49" s="198" t="inlineStr">
+      <c r="C49" s="197" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="254" t="inlineStr">
+      <c r="D49" s="238" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -10082,56 +10106,56 @@
       <c r="K49" s="142" t="n"/>
       <c r="L49" s="177" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B50" s="253" t="n"/>
-      <c r="C50" s="199" t="inlineStr">
+    <row r="50" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B50" s="237" t="n"/>
+      <c r="C50" s="198" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="253" t="n"/>
+      <c r="D50" s="237" t="n"/>
       <c r="E50" s="174" t="n"/>
-      <c r="F50" s="255" t="inlineStr">
+      <c r="F50" s="240" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
       </c>
-      <c r="G50" s="214" t="inlineStr">
+      <c r="G50" s="208" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="254" t="n"/>
+      <c r="H50" s="238" t="n"/>
       <c r="K50" s="142" t="n"/>
       <c r="L50" s="178" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B51" s="137" t="n"/>
       <c r="C51" s="170" t="n"/>
       <c r="D51" s="173" t="n"/>
       <c r="E51" s="174" t="n"/>
-      <c r="F51" s="253" t="n"/>
-      <c r="G51" s="216" t="inlineStr">
+      <c r="F51" s="237" t="n"/>
+      <c r="G51" s="210" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="253" t="n"/>
+      <c r="H51" s="237" t="n"/>
       <c r="K51" s="142" t="n"/>
       <c r="L51" s="178" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B52" s="252" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B52" s="236" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="C52" s="200" t="inlineStr">
+      <c r="C52" s="199" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="254" t="inlineStr">
+      <c r="D52" s="238" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
@@ -10143,7 +10167,7 @@
       <c r="K52" s="142" t="n"/>
       <c r="L52" s="178" t="n"/>
       <c r="M52" s="174" t="n"/>
-      <c r="N52" s="257" t="inlineStr">
+      <c r="N52" s="241" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10153,31 +10177,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="254" t="n"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" s="230">
-      <c r="B53" s="253" t="n"/>
-      <c r="C53" s="216" t="inlineStr">
+      <c r="P52" s="238" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="217">
+      <c r="B53" s="237" t="n"/>
+      <c r="C53" s="210" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="253" t="n"/>
+      <c r="D53" s="237" t="n"/>
       <c r="E53" s="170" t="n"/>
       <c r="F53" s="170" t="n"/>
       <c r="G53" s="176" t="n"/>
       <c r="H53" s="173" t="n"/>
       <c r="K53" s="142" t="n"/>
       <c r="L53" s="178" t="n"/>
-      <c r="N53" s="253" t="n"/>
+      <c r="N53" s="237" t="n"/>
       <c r="O53" s="164" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="253" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="230">
+      <c r="P53" s="237" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="217">
       <c r="B54" s="137" t="n"/>
       <c r="C54" s="170" t="n"/>
       <c r="D54" s="173" t="n"/>
@@ -10188,18 +10212,18 @@
       <c r="K54" s="142" t="n"/>
       <c r="L54" s="178" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="230">
-      <c r="B55" s="252" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="217">
+      <c r="B55" s="236" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="C55" s="202" t="inlineStr">
+      <c r="C55" s="200" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="254" t="inlineStr">
+      <c r="D55" s="238" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -10211,55 +10235,55 @@
       <c r="K55" s="142" t="n"/>
       <c r="L55" s="178" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B56" s="253" t="n"/>
-      <c r="C56" s="195" t="inlineStr">
+    <row r="56" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B56" s="237" t="n"/>
+      <c r="C56" s="194" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="253" t="n"/>
+      <c r="D56" s="237" t="n"/>
       <c r="E56" s="171" t="n"/>
-      <c r="F56" s="255" t="inlineStr">
+      <c r="F56" s="240" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="172" t="inlineStr">
-        <is>
-          <t>Winner R5</t>
-        </is>
-      </c>
-      <c r="H56" s="254" t="n"/>
+      <c r="G56" s="258" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H56" s="238" t="n"/>
       <c r="K56" s="142" t="n"/>
       <c r="L56" s="178" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="230" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B57" s="137" t="n"/>
       <c r="D57" s="173" t="n"/>
       <c r="E57" s="181" t="n"/>
-      <c r="F57" s="253" t="n"/>
-      <c r="G57" s="175" t="inlineStr">
-        <is>
-          <t>Winner R6</t>
-        </is>
-      </c>
-      <c r="H57" s="253" t="n"/>
+      <c r="F57" s="237" t="n"/>
+      <c r="G57" s="259" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H57" s="237" t="n"/>
       <c r="K57" s="142" t="n"/>
       <c r="L57" s="178" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" s="230">
-      <c r="B58" s="252" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="217">
+      <c r="B58" s="236" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
       </c>
-      <c r="C58" s="200" t="inlineStr">
+      <c r="C58" s="199" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="254" t="inlineStr">
+      <c r="D58" s="238" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -10269,18 +10293,18 @@
       <c r="K58" s="142" t="n"/>
       <c r="L58" s="180" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B59" s="253" t="n"/>
-      <c r="C59" s="197" t="inlineStr">
+    <row r="59" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B59" s="237" t="n"/>
+      <c r="C59" s="196" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="253" t="n"/>
+      <c r="D59" s="237" t="n"/>
       <c r="G59" s="176" t="n"/>
       <c r="H59" s="178" t="n"/>
       <c r="I59" s="174" t="n"/>
-      <c r="J59" s="256" t="inlineStr">
+      <c r="J59" s="239" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
@@ -10290,33 +10314,33 @@
           <t>Winner QF3</t>
         </is>
       </c>
-      <c r="L59" s="254" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="230">
+      <c r="L59" s="238" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="217">
       <c r="B60" s="137" t="n"/>
       <c r="D60" s="173" t="n"/>
       <c r="G60" s="176" t="n"/>
       <c r="H60" s="178" t="n"/>
-      <c r="J60" s="253" t="n"/>
+      <c r="J60" s="237" t="n"/>
       <c r="K60" s="164" t="inlineStr">
         <is>
           <t>Winner QF4</t>
         </is>
       </c>
-      <c r="L60" s="253" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="230">
-      <c r="B61" s="252" t="inlineStr">
+      <c r="L60" s="237" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="217">
+      <c r="B61" s="236" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
       </c>
-      <c r="C61" s="203" t="inlineStr">
+      <c r="C61" s="201" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="254" t="inlineStr">
+      <c r="D61" s="238" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -10324,98 +10348,67 @@
       <c r="G61" s="176" t="n"/>
       <c r="H61" s="180" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="230" thickBot="1">
-      <c r="B62" s="253" t="n"/>
-      <c r="C62" s="204" t="inlineStr">
+    <row r="62" ht="15.75" customHeight="1" s="217" thickBot="1">
+      <c r="B62" s="237" t="n"/>
+      <c r="C62" s="202" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="253" t="n"/>
+      <c r="D62" s="237" t="n"/>
       <c r="E62" s="171" t="n"/>
-      <c r="F62" s="255" t="inlineStr">
+      <c r="F62" s="240" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
       </c>
-      <c r="G62" s="217" t="inlineStr">
+      <c r="G62" s="211" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="254" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="230" thickBot="1">
+      <c r="H62" s="238" t="n"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="217" thickBot="1">
       <c r="B63" s="137" t="n"/>
       <c r="D63" s="173" t="n"/>
       <c r="E63" s="181" t="n"/>
-      <c r="F63" s="253" t="n"/>
-      <c r="G63" s="215" t="inlineStr">
+      <c r="F63" s="237" t="n"/>
+      <c r="G63" s="209" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="253" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1" s="230">
-      <c r="B64" s="252" t="inlineStr">
+      <c r="H63" s="237" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="217">
+      <c r="B64" s="236" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
       </c>
-      <c r="C64" s="194" t="inlineStr">
+      <c r="C64" s="193" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="254" t="inlineStr">
+      <c r="D64" s="238" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="230">
-      <c r="B65" s="253" t="n"/>
-      <c r="C65" s="205" t="inlineStr">
+    <row r="65" ht="15" customHeight="1" s="217">
+      <c r="B65" s="237" t="n"/>
+      <c r="C65" s="203" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="253" t="n"/>
+      <c r="D65" s="237" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10430,6 +10423,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Euro2020/result_files/EC_2020_Papa.xlsx
+++ b/Euro2020/result_files/EC_2020_Papa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matches" sheetId="1" state="visible" r:id="rId1"/>
@@ -403,16 +403,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -805,13 +808,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="52" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="48" borderId="0"/>
@@ -1392,69 +1395,109 @@
     <xf numFmtId="0" fontId="10" fillId="47" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="52" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="15"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
@@ -1485,46 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1920,26 +1923,26 @@
   </sheetPr>
   <dimension ref="B2:U65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="228" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="228" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="228" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="228" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="228" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="228" min="9" max="9"/>
-    <col width="4" customWidth="1" style="228" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="228" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="228" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="228" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="225" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="225" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="225" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="225" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="225" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="225" min="9" max="9"/>
+    <col width="4" customWidth="1" style="225" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="225" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="225" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="225" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="228">
-      <c r="C2" s="234" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="225">
+      <c r="C2" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -2281,21 +2284,21 @@
       <c r="K15" s="80" t="n"/>
       <c r="L15" s="80" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="228">
-      <c r="C16" s="218" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="225">
+      <c r="C16" s="242" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="219" t="n"/>
-      <c r="E16" s="219" t="n"/>
-      <c r="F16" s="219" t="n"/>
-      <c r="G16" s="219" t="n"/>
-      <c r="H16" s="219" t="n"/>
-      <c r="I16" s="219" t="n"/>
-      <c r="J16" s="219" t="n"/>
-      <c r="K16" s="219" t="n"/>
-      <c r="L16" s="219" t="n"/>
+      <c r="D16" s="230" t="n"/>
+      <c r="E16" s="230" t="n"/>
+      <c r="F16" s="230" t="n"/>
+      <c r="G16" s="230" t="n"/>
+      <c r="H16" s="230" t="n"/>
+      <c r="I16" s="230" t="n"/>
+      <c r="J16" s="230" t="n"/>
+      <c r="K16" s="230" t="n"/>
+      <c r="L16" s="230" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -2303,19 +2306,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="235" t="n"/>
-      <c r="E17" s="230" t="n"/>
-      <c r="F17" s="230" t="n"/>
-      <c r="G17" s="231" t="n"/>
-      <c r="H17" s="229" t="inlineStr">
+      <c r="D17" s="226" t="n"/>
+      <c r="E17" s="227" t="n"/>
+      <c r="F17" s="227" t="n"/>
+      <c r="G17" s="228" t="n"/>
+      <c r="H17" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="230" t="n"/>
-      <c r="J17" s="230" t="n"/>
-      <c r="K17" s="230" t="n"/>
-      <c r="L17" s="231" t="n"/>
+      <c r="I17" s="227" t="n"/>
+      <c r="J17" s="227" t="n"/>
+      <c r="K17" s="227" t="n"/>
+      <c r="L17" s="228" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -2323,50 +2326,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="222" t="n"/>
-      <c r="E18" s="219" t="n"/>
-      <c r="F18" s="219" t="n"/>
-      <c r="G18" s="223" t="n"/>
-      <c r="H18" s="232" t="n"/>
-      <c r="I18" s="219" t="n"/>
-      <c r="J18" s="219" t="n"/>
-      <c r="K18" s="219" t="n"/>
-      <c r="L18" s="223" t="n"/>
+      <c r="D18" s="229" t="n"/>
+      <c r="E18" s="230" t="n"/>
+      <c r="F18" s="230" t="n"/>
+      <c r="G18" s="231" t="n"/>
+      <c r="H18" s="234" t="n"/>
+      <c r="I18" s="230" t="n"/>
+      <c r="J18" s="230" t="n"/>
+      <c r="K18" s="230" t="n"/>
+      <c r="L18" s="231" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="233" t="inlineStr">
+      <c r="C20" s="235" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="230" t="n"/>
+      <c r="D20" s="227" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="233" t="inlineStr">
+      <c r="G20" s="235" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="230" t="n"/>
+      <c r="H20" s="227" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="233" t="inlineStr">
+      <c r="K20" s="235" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="230" t="n"/>
+      <c r="L20" s="227" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -3013,21 +3016,21 @@
       <c r="L36" s="94" t="n"/>
       <c r="M36" s="89" t="n"/>
     </row>
-    <row r="38" ht="39.95" customHeight="1" s="228">
-      <c r="C38" s="218" t="inlineStr">
+    <row r="38" ht="39.95" customHeight="1" s="225">
+      <c r="C38" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="219" t="n"/>
-      <c r="E38" s="219" t="n"/>
-      <c r="F38" s="219" t="n"/>
-      <c r="G38" s="219" t="n"/>
-      <c r="H38" s="219" t="n"/>
-      <c r="I38" s="219" t="n"/>
-      <c r="J38" s="219" t="n"/>
-      <c r="K38" s="219" t="n"/>
-      <c r="L38" s="219" t="n"/>
+      <c r="D38" s="230" t="n"/>
+      <c r="E38" s="230" t="n"/>
+      <c r="F38" s="230" t="n"/>
+      <c r="G38" s="230" t="n"/>
+      <c r="H38" s="230" t="n"/>
+      <c r="I38" s="230" t="n"/>
+      <c r="J38" s="230" t="n"/>
+      <c r="K38" s="230" t="n"/>
+      <c r="L38" s="230" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -3035,19 +3038,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="235" t="n"/>
-      <c r="E39" s="230" t="n"/>
-      <c r="F39" s="230" t="n"/>
-      <c r="G39" s="231" t="n"/>
-      <c r="H39" s="229" t="inlineStr">
+      <c r="D39" s="226" t="n"/>
+      <c r="E39" s="227" t="n"/>
+      <c r="F39" s="227" t="n"/>
+      <c r="G39" s="228" t="n"/>
+      <c r="H39" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="230" t="n"/>
-      <c r="J39" s="230" t="n"/>
-      <c r="K39" s="230" t="n"/>
-      <c r="L39" s="231" t="n"/>
+      <c r="I39" s="227" t="n"/>
+      <c r="J39" s="227" t="n"/>
+      <c r="K39" s="227" t="n"/>
+      <c r="L39" s="228" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -3055,27 +3058,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="222" t="n"/>
-      <c r="E40" s="219" t="n"/>
-      <c r="F40" s="219" t="n"/>
-      <c r="G40" s="223" t="n"/>
-      <c r="H40" s="232" t="n"/>
-      <c r="I40" s="219" t="n"/>
-      <c r="J40" s="219" t="n"/>
-      <c r="K40" s="219" t="n"/>
-      <c r="L40" s="223" t="n"/>
+      <c r="D40" s="229" t="n"/>
+      <c r="E40" s="230" t="n"/>
+      <c r="F40" s="230" t="n"/>
+      <c r="G40" s="231" t="n"/>
+      <c r="H40" s="234" t="n"/>
+      <c r="I40" s="230" t="n"/>
+      <c r="J40" s="230" t="n"/>
+      <c r="K40" s="230" t="n"/>
+      <c r="L40" s="231" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="43" t="n"/>
-      <c r="C41" s="219" t="n"/>
+      <c r="C41" s="230" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="224" t="inlineStr">
+      <c r="B42" s="243" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="219" t="n"/>
+      <c r="C42" s="230" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -3118,11 +3121,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="227" t="n"/>
+      <c r="S42" s="232" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="216" t="inlineStr">
+      <c r="B43" s="241" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -3132,22 +3135,22 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="221" t="inlineStr">
+      <c r="D43" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B44" s="217" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B44" s="237" t="n"/>
       <c r="C44" s="179" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="217" t="n"/>
+      <c r="D44" s="237" t="n"/>
       <c r="E44" s="41" t="n"/>
-      <c r="F44" s="220" t="inlineStr">
+      <c r="F44" s="240" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -3157,22 +3160,26 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="221" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" s="228" thickBot="1">
+      <c r="H44" s="236" t="inlineStr">
+        <is>
+          <t>2-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="90" t="n"/>
       <c r="E45" s="40" t="n"/>
-      <c r="F45" s="217" t="n"/>
+      <c r="F45" s="237" t="n"/>
       <c r="G45" s="201" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="217" t="n"/>
+      <c r="H45" s="237" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="216" t="inlineStr">
+      <c r="B46" s="241" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -3182,7 +3189,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="221" t="inlineStr">
+      <c r="D46" s="236" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -3190,29 +3197,29 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="91" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B47" s="217" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B47" s="237" t="n"/>
       <c r="C47" s="181" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="217" t="n"/>
+      <c r="D47" s="237" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="92" t="n"/>
       <c r="I47" s="40" t="n"/>
-      <c r="J47" s="225" t="inlineStr">
+      <c r="J47" s="238" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
       </c>
-      <c r="K47" s="256" t="inlineStr">
+      <c r="K47" s="216" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L47" s="221" t="n"/>
-      <c r="S47" s="227" t="n"/>
+      <c r="L47" s="236" t="n"/>
+      <c r="S47" s="232" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -3220,16 +3227,16 @@
       <c r="D48" s="90" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="92" t="n"/>
-      <c r="J48" s="217" t="n"/>
-      <c r="K48" s="257" t="inlineStr">
+      <c r="J48" s="237" t="n"/>
+      <c r="K48" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L48" s="217" t="n"/>
+      <c r="L48" s="237" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="216" t="inlineStr">
+      <c r="B49" s="241" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -3239,7 +3246,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="221" t="inlineStr">
+      <c r="D49" s="236" t="inlineStr">
         <is>
           <t>3-4</t>
         </is>
@@ -3249,16 +3256,16 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="91" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B50" s="217" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B50" s="237" t="n"/>
       <c r="C50" s="183" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="217" t="n"/>
+      <c r="D50" s="237" t="n"/>
       <c r="E50" s="40" t="n"/>
-      <c r="F50" s="220" t="inlineStr">
+      <c r="F50" s="240" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -3268,26 +3275,30 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="221" t="n"/>
+      <c r="H50" s="236" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="92" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="90" t="n"/>
       <c r="E51" s="40" t="n"/>
-      <c r="F51" s="217" t="n"/>
-      <c r="G51" s="202" t="inlineStr">
+      <c r="F51" s="237" t="n"/>
+      <c r="G51" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="217" t="n"/>
+      <c r="H51" s="237" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="92" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B52" s="216" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B52" s="241" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -3297,7 +3308,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="221" t="inlineStr">
+      <c r="D52" s="236" t="inlineStr">
         <is>
           <t>3-5</t>
         </is>
@@ -3307,7 +3318,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="92" t="n"/>
       <c r="M52" s="40" t="n"/>
-      <c r="N52" s="226" t="inlineStr">
+      <c r="N52" s="239" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -3317,27 +3328,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="221" t="n"/>
+      <c r="P52" s="236" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="217" t="n"/>
-      <c r="C53" s="202" t="inlineStr">
+      <c r="B53" s="237" t="n"/>
+      <c r="C53" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="217" t="n"/>
+      <c r="D53" s="237" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="90" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="92" t="n"/>
-      <c r="N53" s="217" t="n"/>
+      <c r="N53" s="237" t="n"/>
       <c r="O53" s="39" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="217" t="n"/>
+      <c r="P53" s="237" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -3348,7 +3359,7 @@
       <c r="L54" s="92" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="216" t="inlineStr">
+      <c r="B55" s="241" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -3358,7 +3369,7 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="221" t="inlineStr">
+      <c r="D55" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -3368,45 +3379,49 @@
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="92" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B56" s="217" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B56" s="237" t="n"/>
       <c r="C56" s="179" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="217" t="n"/>
+      <c r="D56" s="237" t="n"/>
       <c r="E56" s="41" t="n"/>
-      <c r="F56" s="220" t="inlineStr">
+      <c r="F56" s="240" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="212" t="inlineStr">
+      <c r="G56" s="208" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="H56" s="221" t="n"/>
+      <c r="H56" s="236" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="92" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="90" t="n"/>
       <c r="E57" s="42" t="n"/>
-      <c r="F57" s="217" t="n"/>
-      <c r="G57" s="213" t="inlineStr">
+      <c r="F57" s="237" t="n"/>
+      <c r="G57" s="209" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H57" s="217" t="n"/>
+      <c r="H57" s="237" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="92" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="216" t="inlineStr">
+      <c r="B58" s="241" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -3416,7 +3431,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="221" t="inlineStr">
+      <c r="D58" s="236" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -3426,44 +3441,44 @@
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="93" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B59" s="217" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B59" s="237" t="n"/>
       <c r="C59" s="181" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="217" t="n"/>
+      <c r="D59" s="237" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="92" t="n"/>
       <c r="I59" s="40" t="n"/>
-      <c r="J59" s="225" t="inlineStr">
+      <c r="J59" s="238" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
       </c>
-      <c r="K59" s="258" t="inlineStr">
+      <c r="K59" s="218" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L59" s="221" t="n"/>
+      <c r="L59" s="236" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="90" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="92" t="n"/>
-      <c r="J60" s="217" t="n"/>
-      <c r="K60" s="259" t="inlineStr">
+      <c r="J60" s="237" t="n"/>
+      <c r="K60" s="219" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L60" s="217" t="n"/>
+      <c r="L60" s="237" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="216" t="inlineStr">
+      <c r="B61" s="241" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -3473,7 +3488,7 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="221" t="inlineStr">
+      <c r="D61" s="236" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -3481,16 +3496,16 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="93" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B62" s="217" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B62" s="237" t="n"/>
       <c r="C62" s="187" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="217" t="n"/>
+      <c r="D62" s="237" t="n"/>
       <c r="E62" s="41" t="n"/>
-      <c r="F62" s="220" t="inlineStr">
+      <c r="F62" s="240" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -3500,22 +3515,26 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="221" t="n"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1" s="228" thickBot="1">
+      <c r="H62" s="236" t="inlineStr">
+        <is>
+          <t>1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="90" t="n"/>
       <c r="E63" s="42" t="n"/>
-      <c r="F63" s="217" t="n"/>
+      <c r="F63" s="237" t="n"/>
       <c r="G63" s="201" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="217" t="n"/>
+      <c r="H63" s="237" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="216" t="inlineStr">
+      <c r="B64" s="241" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -3525,43 +3544,33 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="221" t="inlineStr">
+      <c r="D64" s="236" t="inlineStr">
         <is>
           <t>0-4</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="217" t="n"/>
+      <c r="B65" s="237" t="n"/>
       <c r="C65" s="188" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="217" t="n"/>
+      <c r="D65" s="237" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="H17:L18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="H39:L40"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="F50:F51"/>
@@ -3577,16 +3586,26 @@
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="H17:L18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H39:L40"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="S42:T42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3605,17 +3624,17 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="5.28515625" customWidth="1" style="228" min="1" max="1"/>
-    <col width="15.140625" bestFit="1" customWidth="1" style="228" min="2" max="2"/>
-    <col width="5.7109375" customWidth="1" style="228" min="3" max="4"/>
-    <col width="16.7109375" customWidth="1" style="228" min="5" max="5"/>
-    <col width="5.7109375" customWidth="1" style="228" min="6" max="7"/>
-    <col width="16.7109375" customWidth="1" style="228" min="8" max="8"/>
-    <col width="5.7109375" customWidth="1" style="228" min="9" max="10"/>
-    <col width="16.7109375" customWidth="1" style="228" min="11" max="11"/>
-    <col width="5.7109375" customWidth="1" style="228" min="12" max="13"/>
+    <col width="5.28515625" customWidth="1" style="225" min="1" max="1"/>
+    <col width="15.140625" bestFit="1" customWidth="1" style="225" min="2" max="2"/>
+    <col width="5.7109375" customWidth="1" style="225" min="3" max="4"/>
+    <col width="16.7109375" customWidth="1" style="225" min="5" max="5"/>
+    <col width="5.7109375" customWidth="1" style="225" min="6" max="7"/>
+    <col width="16.7109375" customWidth="1" style="225" min="8" max="8"/>
+    <col width="5.7109375" customWidth="1" style="225" min="9" max="10"/>
+    <col width="16.7109375" customWidth="1" style="225" min="11" max="11"/>
+    <col width="5.7109375" customWidth="1" style="225" min="12" max="13"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -3669,7 +3688,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
@@ -3701,11 +3720,11 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -3737,11 +3756,11 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -3777,7 +3796,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="8" t="inlineStr">
         <is>
@@ -3979,22 +3998,22 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="228" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="228" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="228" min="3" max="4"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="228" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="228" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="228" min="9" max="9"/>
-    <col width="4" customWidth="1" style="228" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="228" min="11" max="12"/>
-    <col width="4.140625" customWidth="1" style="228" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="228" min="15" max="17"/>
+    <col width="2.42578125" customWidth="1" style="225" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="225" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="225" min="3" max="4"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="225" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="225" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="225" min="9" max="9"/>
+    <col width="4" customWidth="1" style="225" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="225" min="11" max="12"/>
+    <col width="4.140625" customWidth="1" style="225" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="225" min="15" max="17"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="228">
-      <c r="C2" s="234" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="225">
+      <c r="C2" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -4288,21 +4307,21 @@
       <c r="K15" s="80" t="n"/>
       <c r="L15" s="80" t="n"/>
     </row>
-    <row r="16" ht="39.95" customHeight="1" s="228">
-      <c r="C16" s="218" t="inlineStr">
+    <row r="16" ht="39.95" customHeight="1" s="225">
+      <c r="C16" s="242" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="219" t="n"/>
-      <c r="E16" s="219" t="n"/>
-      <c r="F16" s="219" t="n"/>
-      <c r="G16" s="219" t="n"/>
-      <c r="H16" s="219" t="n"/>
-      <c r="I16" s="219" t="n"/>
-      <c r="J16" s="219" t="n"/>
-      <c r="K16" s="219" t="n"/>
-      <c r="L16" s="219" t="n"/>
+      <c r="D16" s="230" t="n"/>
+      <c r="E16" s="230" t="n"/>
+      <c r="F16" s="230" t="n"/>
+      <c r="G16" s="230" t="n"/>
+      <c r="H16" s="230" t="n"/>
+      <c r="I16" s="230" t="n"/>
+      <c r="J16" s="230" t="n"/>
+      <c r="K16" s="230" t="n"/>
+      <c r="L16" s="230" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -4310,19 +4329,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="235" t="n"/>
-      <c r="E17" s="230" t="n"/>
-      <c r="F17" s="230" t="n"/>
-      <c r="G17" s="231" t="n"/>
-      <c r="H17" s="229" t="inlineStr">
+      <c r="D17" s="226" t="n"/>
+      <c r="E17" s="227" t="n"/>
+      <c r="F17" s="227" t="n"/>
+      <c r="G17" s="228" t="n"/>
+      <c r="H17" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="230" t="n"/>
-      <c r="J17" s="230" t="n"/>
-      <c r="K17" s="230" t="n"/>
-      <c r="L17" s="231" t="n"/>
+      <c r="I17" s="227" t="n"/>
+      <c r="J17" s="227" t="n"/>
+      <c r="K17" s="227" t="n"/>
+      <c r="L17" s="228" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -4330,50 +4349,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="222" t="n"/>
-      <c r="E18" s="219" t="n"/>
-      <c r="F18" s="219" t="n"/>
-      <c r="G18" s="223" t="n"/>
-      <c r="H18" s="232" t="n"/>
-      <c r="I18" s="219" t="n"/>
-      <c r="J18" s="219" t="n"/>
-      <c r="K18" s="219" t="n"/>
-      <c r="L18" s="223" t="n"/>
+      <c r="D18" s="229" t="n"/>
+      <c r="E18" s="230" t="n"/>
+      <c r="F18" s="230" t="n"/>
+      <c r="G18" s="231" t="n"/>
+      <c r="H18" s="234" t="n"/>
+      <c r="I18" s="230" t="n"/>
+      <c r="J18" s="230" t="n"/>
+      <c r="K18" s="230" t="n"/>
+      <c r="L18" s="231" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="233" t="inlineStr">
+      <c r="C20" s="235" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="230" t="n"/>
+      <c r="D20" s="227" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="233" t="inlineStr">
+      <c r="G20" s="235" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="230" t="n"/>
+      <c r="H20" s="227" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="233" t="inlineStr">
+      <c r="K20" s="235" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="230" t="n"/>
+      <c r="L20" s="227" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -4961,20 +4980,20 @@
       <c r="M36" s="89" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="218" t="inlineStr">
+      <c r="C38" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="219" t="n"/>
-      <c r="E38" s="219" t="n"/>
-      <c r="F38" s="219" t="n"/>
-      <c r="G38" s="219" t="n"/>
-      <c r="H38" s="219" t="n"/>
-      <c r="I38" s="219" t="n"/>
-      <c r="J38" s="219" t="n"/>
-      <c r="K38" s="219" t="n"/>
-      <c r="L38" s="219" t="n"/>
+      <c r="D38" s="230" t="n"/>
+      <c r="E38" s="230" t="n"/>
+      <c r="F38" s="230" t="n"/>
+      <c r="G38" s="230" t="n"/>
+      <c r="H38" s="230" t="n"/>
+      <c r="I38" s="230" t="n"/>
+      <c r="J38" s="230" t="n"/>
+      <c r="K38" s="230" t="n"/>
+      <c r="L38" s="230" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -4982,19 +5001,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="235" t="n"/>
-      <c r="E39" s="230" t="n"/>
-      <c r="F39" s="230" t="n"/>
-      <c r="G39" s="231" t="n"/>
-      <c r="H39" s="229" t="inlineStr">
+      <c r="D39" s="226" t="n"/>
+      <c r="E39" s="227" t="n"/>
+      <c r="F39" s="227" t="n"/>
+      <c r="G39" s="228" t="n"/>
+      <c r="H39" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="230" t="n"/>
-      <c r="J39" s="230" t="n"/>
-      <c r="K39" s="230" t="n"/>
-      <c r="L39" s="231" t="n"/>
+      <c r="I39" s="227" t="n"/>
+      <c r="J39" s="227" t="n"/>
+      <c r="K39" s="227" t="n"/>
+      <c r="L39" s="228" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -5002,27 +5021,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="222" t="n"/>
-      <c r="E40" s="219" t="n"/>
-      <c r="F40" s="219" t="n"/>
-      <c r="G40" s="223" t="n"/>
-      <c r="H40" s="232" t="n"/>
-      <c r="I40" s="219" t="n"/>
-      <c r="J40" s="219" t="n"/>
-      <c r="K40" s="219" t="n"/>
-      <c r="L40" s="223" t="n"/>
+      <c r="D40" s="229" t="n"/>
+      <c r="E40" s="230" t="n"/>
+      <c r="F40" s="230" t="n"/>
+      <c r="G40" s="231" t="n"/>
+      <c r="H40" s="234" t="n"/>
+      <c r="I40" s="230" t="n"/>
+      <c r="J40" s="230" t="n"/>
+      <c r="K40" s="230" t="n"/>
+      <c r="L40" s="231" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="43" t="n"/>
-      <c r="C41" s="219" t="n"/>
+      <c r="C41" s="230" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="224" t="inlineStr">
+      <c r="B42" s="243" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="219" t="n"/>
+      <c r="C42" s="230" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -5065,11 +5084,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="227" t="n"/>
+      <c r="S42" s="232" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="216" t="inlineStr">
+      <c r="B43" s="241" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -5079,22 +5098,22 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="221" t="inlineStr">
+      <c r="D43" s="236" t="inlineStr">
         <is>
           <t>3-0</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B44" s="217" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B44" s="237" t="n"/>
       <c r="C44" s="179" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="217" t="n"/>
+      <c r="D44" s="237" t="n"/>
       <c r="E44" s="41" t="n"/>
-      <c r="F44" s="220" t="inlineStr">
+      <c r="F44" s="240" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -5104,26 +5123,26 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="221" t="inlineStr">
+      <c r="H44" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="90" t="n"/>
       <c r="E45" s="40" t="n"/>
-      <c r="F45" s="217" t="n"/>
+      <c r="F45" s="237" t="n"/>
       <c r="G45" s="201" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="217" t="n"/>
+      <c r="H45" s="237" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="216" t="inlineStr">
+      <c r="B46" s="241" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -5133,7 +5152,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="221" t="inlineStr">
+      <c r="D46" s="236" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
@@ -5141,29 +5160,29 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="91" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B47" s="217" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B47" s="237" t="n"/>
       <c r="C47" s="181" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="217" t="n"/>
+      <c r="D47" s="237" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="92" t="n"/>
       <c r="I47" s="40" t="n"/>
-      <c r="J47" s="225" t="inlineStr">
+      <c r="J47" s="238" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
       </c>
-      <c r="K47" s="256" t="inlineStr">
+      <c r="K47" s="216" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L47" s="221" t="n"/>
-      <c r="S47" s="227" t="n"/>
+      <c r="L47" s="236" t="n"/>
+      <c r="S47" s="232" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -5171,16 +5190,16 @@
       <c r="D48" s="90" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="92" t="n"/>
-      <c r="J48" s="217" t="n"/>
-      <c r="K48" s="257" t="inlineStr">
+      <c r="J48" s="237" t="n"/>
+      <c r="K48" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L48" s="217" t="n"/>
+      <c r="L48" s="237" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="216" t="inlineStr">
+      <c r="B49" s="241" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -5190,7 +5209,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="221" t="inlineStr">
+      <c r="D49" s="236" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -5200,16 +5219,16 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="91" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B50" s="217" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B50" s="237" t="n"/>
       <c r="C50" s="183" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="217" t="n"/>
+      <c r="D50" s="237" t="n"/>
       <c r="E50" s="40" t="n"/>
-      <c r="F50" s="220" t="inlineStr">
+      <c r="F50" s="240" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -5219,7 +5238,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="221" t="inlineStr">
+      <c r="H50" s="236" t="inlineStr">
         <is>
           <t>0-3</t>
         </is>
@@ -5227,22 +5246,22 @@
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="92" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="90" t="n"/>
       <c r="E51" s="40" t="n"/>
-      <c r="F51" s="217" t="n"/>
-      <c r="G51" s="202" t="inlineStr">
+      <c r="F51" s="237" t="n"/>
+      <c r="G51" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="217" t="n"/>
+      <c r="H51" s="237" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="92" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B52" s="216" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B52" s="241" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -5252,7 +5271,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="221" t="inlineStr">
+      <c r="D52" s="236" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
@@ -5262,7 +5281,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="92" t="n"/>
       <c r="M52" s="40" t="n"/>
-      <c r="N52" s="226" t="inlineStr">
+      <c r="N52" s="239" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -5272,27 +5291,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="221" t="n"/>
+      <c r="P52" s="236" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="217" t="n"/>
-      <c r="C53" s="202" t="inlineStr">
+      <c r="B53" s="237" t="n"/>
+      <c r="C53" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="217" t="n"/>
+      <c r="D53" s="237" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="90" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="92" t="n"/>
-      <c r="N53" s="217" t="n"/>
+      <c r="N53" s="237" t="n"/>
       <c r="O53" s="39" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="217" t="n"/>
+      <c r="P53" s="237" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -5303,7 +5322,7 @@
       <c r="L54" s="92" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="216" t="inlineStr">
+      <c r="B55" s="241" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -5313,7 +5332,7 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="221" t="inlineStr">
+      <c r="D55" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5323,26 +5342,26 @@
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="92" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B56" s="217" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B56" s="237" t="n"/>
       <c r="C56" s="179" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="217" t="n"/>
+      <c r="D56" s="237" t="n"/>
       <c r="E56" s="41" t="n"/>
-      <c r="F56" s="220" t="inlineStr">
+      <c r="F56" s="240" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="212" t="inlineStr">
+      <c r="G56" s="208" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="H56" s="221" t="inlineStr">
+      <c r="H56" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -5350,22 +5369,22 @@
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="92" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="90" t="n"/>
       <c r="E57" s="42" t="n"/>
-      <c r="F57" s="217" t="n"/>
-      <c r="G57" s="213" t="inlineStr">
+      <c r="F57" s="237" t="n"/>
+      <c r="G57" s="209" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H57" s="217" t="n"/>
+      <c r="H57" s="237" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="92" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="216" t="inlineStr">
+      <c r="B58" s="241" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -5375,7 +5394,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="221" t="inlineStr">
+      <c r="D58" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5385,44 +5404,44 @@
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="93" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B59" s="217" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B59" s="237" t="n"/>
       <c r="C59" s="181" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="217" t="n"/>
+      <c r="D59" s="237" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="92" t="n"/>
       <c r="I59" s="40" t="n"/>
-      <c r="J59" s="225" t="inlineStr">
+      <c r="J59" s="238" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
       </c>
-      <c r="K59" s="258" t="inlineStr">
+      <c r="K59" s="218" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L59" s="221" t="n"/>
+      <c r="L59" s="236" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="90" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="92" t="n"/>
-      <c r="J60" s="217" t="n"/>
-      <c r="K60" s="259" t="inlineStr">
+      <c r="J60" s="237" t="n"/>
+      <c r="K60" s="219" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L60" s="217" t="n"/>
+      <c r="L60" s="237" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="216" t="inlineStr">
+      <c r="B61" s="241" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -5432,7 +5451,7 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="221" t="inlineStr">
+      <c r="D61" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -5440,16 +5459,16 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="93" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B62" s="217" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B62" s="237" t="n"/>
       <c r="C62" s="187" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="217" t="n"/>
+      <c r="D62" s="237" t="n"/>
       <c r="E62" s="41" t="n"/>
-      <c r="F62" s="220" t="inlineStr">
+      <c r="F62" s="240" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -5459,26 +5478,26 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="221" t="inlineStr">
+      <c r="H62" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="63" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="90" t="n"/>
       <c r="E63" s="42" t="n"/>
-      <c r="F63" s="217" t="n"/>
+      <c r="F63" s="237" t="n"/>
       <c r="G63" s="201" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="217" t="n"/>
+      <c r="H63" s="237" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="216" t="inlineStr">
+      <c r="B64" s="241" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -5488,54 +5507,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="221" t="inlineStr">
+      <c r="D64" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="217" t="n"/>
+      <c r="B65" s="237" t="n"/>
       <c r="C65" s="188" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="217" t="n"/>
+      <c r="D65" s="237" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -5550,6 +5538,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5568,26 +5587,26 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="228" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="228" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="228" min="3" max="4"/>
-    <col width="9.140625" customWidth="1" style="228" min="5" max="5"/>
-    <col width="4.42578125" bestFit="1" customWidth="1" style="228" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="228" min="7" max="8"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="228" min="9" max="9"/>
-    <col width="4" customWidth="1" style="228" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="228" min="11" max="12"/>
-    <col width="9.140625" customWidth="1" style="228" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="228" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="228" min="15" max="17"/>
-    <col width="9.140625" customWidth="1" style="228" min="18" max="36"/>
-    <col width="9.140625" customWidth="1" style="228" min="37" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="225" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="225" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="225" min="3" max="4"/>
+    <col width="9.140625" customWidth="1" style="225" min="5" max="5"/>
+    <col width="4.42578125" bestFit="1" customWidth="1" style="225" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="225" min="7" max="8"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" style="225" min="9" max="9"/>
+    <col width="4" customWidth="1" style="225" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="225" min="11" max="12"/>
+    <col width="9.140625" customWidth="1" style="225" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="225" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="225" min="15" max="17"/>
+    <col width="9.140625" customWidth="1" style="225" min="18" max="37"/>
+    <col width="9.140625" customWidth="1" style="225" min="38" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="228">
-      <c r="C2" s="234" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="225">
+      <c r="C2" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
@@ -5930,20 +5949,20 @@
       <c r="L15" s="80" t="n"/>
     </row>
     <row r="16">
-      <c r="C16" s="218" t="inlineStr">
+      <c r="C16" s="242" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="219" t="n"/>
-      <c r="E16" s="219" t="n"/>
-      <c r="F16" s="219" t="n"/>
-      <c r="G16" s="219" t="n"/>
-      <c r="H16" s="219" t="n"/>
-      <c r="I16" s="219" t="n"/>
-      <c r="J16" s="219" t="n"/>
-      <c r="K16" s="219" t="n"/>
-      <c r="L16" s="219" t="n"/>
+      <c r="D16" s="230" t="n"/>
+      <c r="E16" s="230" t="n"/>
+      <c r="F16" s="230" t="n"/>
+      <c r="G16" s="230" t="n"/>
+      <c r="H16" s="230" t="n"/>
+      <c r="I16" s="230" t="n"/>
+      <c r="J16" s="230" t="n"/>
+      <c r="K16" s="230" t="n"/>
+      <c r="L16" s="230" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="32" t="inlineStr">
@@ -5951,19 +5970,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="235" t="n"/>
-      <c r="E17" s="230" t="n"/>
-      <c r="F17" s="230" t="n"/>
-      <c r="G17" s="231" t="n"/>
-      <c r="H17" s="229" t="inlineStr">
+      <c r="D17" s="226" t="n"/>
+      <c r="E17" s="227" t="n"/>
+      <c r="F17" s="227" t="n"/>
+      <c r="G17" s="228" t="n"/>
+      <c r="H17" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="230" t="n"/>
-      <c r="J17" s="230" t="n"/>
-      <c r="K17" s="230" t="n"/>
-      <c r="L17" s="231" t="n"/>
+      <c r="I17" s="227" t="n"/>
+      <c r="J17" s="227" t="n"/>
+      <c r="K17" s="227" t="n"/>
+      <c r="L17" s="228" t="n"/>
     </row>
     <row r="18">
       <c r="C18" s="33" t="inlineStr">
@@ -5971,50 +5990,50 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="222" t="n"/>
-      <c r="E18" s="219" t="n"/>
-      <c r="F18" s="219" t="n"/>
-      <c r="G18" s="223" t="n"/>
-      <c r="H18" s="232" t="n"/>
-      <c r="I18" s="219" t="n"/>
-      <c r="J18" s="219" t="n"/>
-      <c r="K18" s="219" t="n"/>
-      <c r="L18" s="223" t="n"/>
+      <c r="D18" s="229" t="n"/>
+      <c r="E18" s="230" t="n"/>
+      <c r="F18" s="230" t="n"/>
+      <c r="G18" s="231" t="n"/>
+      <c r="H18" s="234" t="n"/>
+      <c r="I18" s="230" t="n"/>
+      <c r="J18" s="230" t="n"/>
+      <c r="K18" s="230" t="n"/>
+      <c r="L18" s="231" t="n"/>
     </row>
     <row r="19">
       <c r="C19" s="31" t="n"/>
     </row>
     <row r="20" customFormat="1" s="5">
-      <c r="C20" s="233" t="inlineStr">
+      <c r="C20" s="235" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="230" t="n"/>
+      <c r="D20" s="227" t="n"/>
       <c r="E20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="F20" s="36" t="n"/>
-      <c r="G20" s="233" t="inlineStr">
+      <c r="G20" s="235" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="230" t="n"/>
+      <c r="H20" s="227" t="n"/>
       <c r="I20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
       <c r="J20" s="36" t="n"/>
-      <c r="K20" s="233" t="inlineStr">
+      <c r="K20" s="235" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="230" t="n"/>
+      <c r="L20" s="227" t="n"/>
       <c r="M20" s="35" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6602,20 +6621,20 @@
       <c r="M36" s="89" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="218" t="inlineStr">
+      <c r="C38" s="242" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="219" t="n"/>
-      <c r="E38" s="219" t="n"/>
-      <c r="F38" s="219" t="n"/>
-      <c r="G38" s="219" t="n"/>
-      <c r="H38" s="219" t="n"/>
-      <c r="I38" s="219" t="n"/>
-      <c r="J38" s="219" t="n"/>
-      <c r="K38" s="219" t="n"/>
-      <c r="L38" s="219" t="n"/>
+      <c r="D38" s="230" t="n"/>
+      <c r="E38" s="230" t="n"/>
+      <c r="F38" s="230" t="n"/>
+      <c r="G38" s="230" t="n"/>
+      <c r="H38" s="230" t="n"/>
+      <c r="I38" s="230" t="n"/>
+      <c r="J38" s="230" t="n"/>
+      <c r="K38" s="230" t="n"/>
+      <c r="L38" s="230" t="n"/>
     </row>
     <row r="39">
       <c r="C39" s="32" t="inlineStr">
@@ -6623,19 +6642,19 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="235" t="n"/>
-      <c r="E39" s="230" t="n"/>
-      <c r="F39" s="230" t="n"/>
-      <c r="G39" s="231" t="n"/>
-      <c r="H39" s="229" t="inlineStr">
+      <c r="D39" s="226" t="n"/>
+      <c r="E39" s="227" t="n"/>
+      <c r="F39" s="227" t="n"/>
+      <c r="G39" s="228" t="n"/>
+      <c r="H39" s="233" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="230" t="n"/>
-      <c r="J39" s="230" t="n"/>
-      <c r="K39" s="230" t="n"/>
-      <c r="L39" s="231" t="n"/>
+      <c r="I39" s="227" t="n"/>
+      <c r="J39" s="227" t="n"/>
+      <c r="K39" s="227" t="n"/>
+      <c r="L39" s="228" t="n"/>
     </row>
     <row r="40">
       <c r="C40" s="33" t="inlineStr">
@@ -6643,27 +6662,27 @@
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="222" t="n"/>
-      <c r="E40" s="219" t="n"/>
-      <c r="F40" s="219" t="n"/>
-      <c r="G40" s="223" t="n"/>
-      <c r="H40" s="232" t="n"/>
-      <c r="I40" s="219" t="n"/>
-      <c r="J40" s="219" t="n"/>
-      <c r="K40" s="219" t="n"/>
-      <c r="L40" s="223" t="n"/>
+      <c r="D40" s="229" t="n"/>
+      <c r="E40" s="230" t="n"/>
+      <c r="F40" s="230" t="n"/>
+      <c r="G40" s="231" t="n"/>
+      <c r="H40" s="234" t="n"/>
+      <c r="I40" s="230" t="n"/>
+      <c r="J40" s="230" t="n"/>
+      <c r="K40" s="230" t="n"/>
+      <c r="L40" s="231" t="n"/>
     </row>
     <row r="41">
       <c r="B41" s="43" t="n"/>
-      <c r="C41" s="219" t="n"/>
+      <c r="C41" s="230" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="224" t="inlineStr">
+      <c r="B42" s="243" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="219" t="n"/>
+      <c r="C42" s="230" t="n"/>
       <c r="D42" s="30" t="inlineStr">
         <is>
           <t>Results</t>
@@ -6706,11 +6725,11 @@
         </is>
       </c>
       <c r="Q42" s="38" t="n"/>
-      <c r="S42" s="227" t="n"/>
+      <c r="S42" s="232" t="n"/>
       <c r="U42" s="38" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="216" t="inlineStr">
+      <c r="B43" s="241" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -6720,22 +6739,22 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="221" t="inlineStr">
+      <c r="D43" s="236" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B44" s="217" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B44" s="237" t="n"/>
       <c r="C44" s="179" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="217" t="n"/>
+      <c r="D44" s="237" t="n"/>
       <c r="E44" s="41" t="n"/>
-      <c r="F44" s="220" t="inlineStr">
+      <c r="F44" s="240" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -6745,26 +6764,26 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="221" t="inlineStr">
+      <c r="H44" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B45" s="5" t="n"/>
       <c r="D45" s="90" t="n"/>
       <c r="E45" s="40" t="n"/>
-      <c r="F45" s="217" t="n"/>
+      <c r="F45" s="237" t="n"/>
       <c r="G45" s="201" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="217" t="n"/>
+      <c r="H45" s="237" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="216" t="inlineStr">
+      <c r="B46" s="241" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -6774,7 +6793,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="221" t="inlineStr">
+      <c r="D46" s="236" t="inlineStr">
         <is>
           <t>3-2</t>
         </is>
@@ -6782,29 +6801,29 @@
       <c r="G46" s="1" t="n"/>
       <c r="H46" s="91" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B47" s="217" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B47" s="237" t="n"/>
       <c r="C47" s="181" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="217" t="n"/>
+      <c r="D47" s="237" t="n"/>
       <c r="G47" s="1" t="n"/>
       <c r="H47" s="92" t="n"/>
       <c r="I47" s="40" t="n"/>
-      <c r="J47" s="225" t="inlineStr">
+      <c r="J47" s="238" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
       </c>
-      <c r="K47" s="256" t="inlineStr">
+      <c r="K47" s="216" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L47" s="221" t="n"/>
-      <c r="S47" s="227" t="n"/>
+      <c r="L47" s="236" t="n"/>
+      <c r="S47" s="232" t="n"/>
       <c r="U47" s="38" t="n"/>
     </row>
     <row r="48">
@@ -6812,16 +6831,16 @@
       <c r="D48" s="90" t="n"/>
       <c r="G48" s="1" t="n"/>
       <c r="H48" s="92" t="n"/>
-      <c r="J48" s="217" t="n"/>
-      <c r="K48" s="257" t="inlineStr">
+      <c r="J48" s="237" t="n"/>
+      <c r="K48" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L48" s="217" t="n"/>
+      <c r="L48" s="237" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="216" t="inlineStr">
+      <c r="B49" s="241" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -6831,7 +6850,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="221" t="inlineStr">
+      <c r="D49" s="236" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
@@ -6841,16 +6860,16 @@
       <c r="K49" s="37" t="n"/>
       <c r="L49" s="91" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B50" s="217" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B50" s="237" t="n"/>
       <c r="C50" s="183" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="217" t="n"/>
+      <c r="D50" s="237" t="n"/>
       <c r="E50" s="40" t="n"/>
-      <c r="F50" s="220" t="inlineStr">
+      <c r="F50" s="240" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -6860,7 +6879,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="221" t="inlineStr">
+      <c r="H50" s="236" t="inlineStr">
         <is>
           <t>1-3</t>
         </is>
@@ -6868,22 +6887,22 @@
       <c r="K50" s="37" t="n"/>
       <c r="L50" s="92" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B51" s="5" t="n"/>
       <c r="D51" s="90" t="n"/>
       <c r="E51" s="40" t="n"/>
-      <c r="F51" s="217" t="n"/>
-      <c r="G51" s="202" t="inlineStr">
+      <c r="F51" s="237" t="n"/>
+      <c r="G51" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="217" t="n"/>
+      <c r="H51" s="237" t="n"/>
       <c r="K51" s="37" t="n"/>
       <c r="L51" s="92" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B52" s="216" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B52" s="241" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -6893,7 +6912,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="221" t="inlineStr">
+      <c r="D52" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -6903,7 +6922,7 @@
       <c r="K52" s="37" t="n"/>
       <c r="L52" s="92" t="n"/>
       <c r="M52" s="40" t="n"/>
-      <c r="N52" s="226" t="inlineStr">
+      <c r="N52" s="239" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -6913,27 +6932,27 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="221" t="n"/>
+      <c r="P52" s="236" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="217" t="n"/>
-      <c r="C53" s="202" t="inlineStr">
+      <c r="B53" s="237" t="n"/>
+      <c r="C53" s="217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="217" t="n"/>
+      <c r="D53" s="237" t="n"/>
       <c r="G53" s="1" t="n"/>
       <c r="H53" s="90" t="n"/>
       <c r="K53" s="37" t="n"/>
       <c r="L53" s="92" t="n"/>
-      <c r="N53" s="217" t="n"/>
+      <c r="N53" s="237" t="n"/>
       <c r="O53" s="39" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="217" t="n"/>
+      <c r="P53" s="237" t="n"/>
     </row>
     <row r="54">
       <c r="B54" s="5" t="n"/>
@@ -6944,7 +6963,7 @@
       <c r="L54" s="92" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="216" t="inlineStr">
+      <c r="B55" s="241" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -6954,7 +6973,7 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="221" t="inlineStr">
+      <c r="D55" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -6964,26 +6983,26 @@
       <c r="K55" s="37" t="n"/>
       <c r="L55" s="92" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B56" s="217" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B56" s="237" t="n"/>
       <c r="C56" s="179" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="217" t="n"/>
+      <c r="D56" s="237" t="n"/>
       <c r="E56" s="41" t="n"/>
-      <c r="F56" s="220" t="inlineStr">
+      <c r="F56" s="240" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="212" t="inlineStr">
+      <c r="G56" s="208" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="H56" s="221" t="inlineStr">
+      <c r="H56" s="236" t="inlineStr">
         <is>
           <t>0-2</t>
         </is>
@@ -6991,22 +7010,22 @@
       <c r="K56" s="37" t="n"/>
       <c r="L56" s="92" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B57" s="5" t="n"/>
       <c r="D57" s="90" t="n"/>
       <c r="E57" s="42" t="n"/>
-      <c r="F57" s="217" t="n"/>
-      <c r="G57" s="213" t="inlineStr">
+      <c r="F57" s="237" t="n"/>
+      <c r="G57" s="209" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H57" s="217" t="n"/>
+      <c r="H57" s="237" t="n"/>
       <c r="K57" s="37" t="n"/>
       <c r="L57" s="92" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="216" t="inlineStr">
+      <c r="B58" s="241" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -7016,7 +7035,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="221" t="inlineStr">
+      <c r="D58" s="236" t="inlineStr">
         <is>
           <t>3-1</t>
         </is>
@@ -7026,44 +7045,44 @@
       <c r="K58" s="37" t="n"/>
       <c r="L58" s="93" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B59" s="217" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B59" s="237" t="n"/>
       <c r="C59" s="181" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="217" t="n"/>
+      <c r="D59" s="237" t="n"/>
       <c r="G59" s="1" t="n"/>
       <c r="H59" s="92" t="n"/>
       <c r="I59" s="40" t="n"/>
-      <c r="J59" s="225" t="inlineStr">
+      <c r="J59" s="238" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
       </c>
-      <c r="K59" s="258" t="inlineStr">
+      <c r="K59" s="218" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L59" s="221" t="n"/>
+      <c r="L59" s="236" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="5" t="n"/>
       <c r="D60" s="90" t="n"/>
       <c r="G60" s="1" t="n"/>
       <c r="H60" s="92" t="n"/>
-      <c r="J60" s="217" t="n"/>
-      <c r="K60" s="259" t="inlineStr">
+      <c r="J60" s="237" t="n"/>
+      <c r="K60" s="219" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L60" s="217" t="n"/>
+      <c r="L60" s="237" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="216" t="inlineStr">
+      <c r="B61" s="241" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -7073,7 +7092,7 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="221" t="inlineStr">
+      <c r="D61" s="236" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -7081,16 +7100,16 @@
       <c r="G61" s="1" t="n"/>
       <c r="H61" s="93" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B62" s="217" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B62" s="237" t="n"/>
       <c r="C62" s="187" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="217" t="n"/>
+      <c r="D62" s="237" t="n"/>
       <c r="E62" s="41" t="n"/>
-      <c r="F62" s="220" t="inlineStr">
+      <c r="F62" s="240" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -7100,26 +7119,26 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="221" t="inlineStr">
+      <c r="H62" s="236" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="63" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B63" s="5" t="n"/>
       <c r="D63" s="90" t="n"/>
       <c r="E63" s="42" t="n"/>
-      <c r="F63" s="217" t="n"/>
+      <c r="F63" s="237" t="n"/>
       <c r="G63" s="201" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="217" t="n"/>
+      <c r="H63" s="237" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="216" t="inlineStr">
+      <c r="B64" s="241" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -7129,54 +7148,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="221" t="inlineStr">
+      <c r="D64" s="236" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="217" t="n"/>
+      <c r="B65" s="237" t="n"/>
       <c r="C65" s="188" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="217" t="n"/>
+      <c r="D65" s="237" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -7191,6 +7179,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7209,33 +7228,33 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="237" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="237" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="237" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="237" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="237" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="237" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="237" min="9" max="9"/>
-    <col width="4" customWidth="1" style="237" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="237" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="237" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="237" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="237" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="237" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="237" min="27" max="42"/>
-    <col width="14.42578125" customWidth="1" style="237" min="43" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="251" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="251" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="251" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="251" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="251" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="251" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="251" min="9" max="9"/>
+    <col width="4" customWidth="1" style="251" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="251" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="251" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="251" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="251" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="251" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="251" min="27" max="43"/>
+    <col width="14.42578125" customWidth="1" style="251" min="44" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="228">
-      <c r="C2" s="238" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="225">
+      <c r="C2" s="252" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="228">
+    <row r="4" ht="15" customHeight="1" s="225">
       <c r="C4" s="95" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -7271,7 +7290,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="228">
+    <row r="5" ht="15" customHeight="1" s="225">
       <c r="C5" s="103" t="inlineStr">
         <is>
           <t>Italy</t>
@@ -7295,7 +7314,7 @@
       </c>
       <c r="L5" s="108" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="228">
+    <row r="6" ht="15" customHeight="1" s="225">
       <c r="C6" s="103" t="inlineStr">
         <is>
           <t>Switzerland</t>
@@ -7319,7 +7338,7 @@
       </c>
       <c r="L6" s="108" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="228">
+    <row r="7" ht="15" customHeight="1" s="225">
       <c r="C7" s="103" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -7343,7 +7362,7 @@
       </c>
       <c r="L7" s="108" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="228">
+    <row r="8" ht="15" customHeight="1" s="225">
       <c r="C8" s="109" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -7367,7 +7386,7 @@
       </c>
       <c r="L8" s="114" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="228">
+    <row r="9" ht="15" customHeight="1" s="225">
       <c r="C9" s="97" t="n"/>
       <c r="D9" s="97" t="n"/>
       <c r="E9" s="97" t="n"/>
@@ -7379,7 +7398,7 @@
       <c r="K9" s="97" t="n"/>
       <c r="L9" s="97" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="228">
+    <row r="10" ht="15" customHeight="1" s="225">
       <c r="C10" s="115" t="inlineStr">
         <is>
           <t>Group D</t>
@@ -7415,7 +7434,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="228">
+    <row r="11" ht="15" customHeight="1" s="225">
       <c r="C11" s="121" t="inlineStr">
         <is>
           <t>Croatia</t>
@@ -7439,7 +7458,7 @@
       </c>
       <c r="L11" s="126" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="228">
+    <row r="12" ht="15" customHeight="1" s="225">
       <c r="C12" s="121" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -7463,7 +7482,7 @@
       </c>
       <c r="L12" s="126" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="228">
+    <row r="13" ht="15" customHeight="1" s="225">
       <c r="C13" s="121" t="inlineStr">
         <is>
           <t>England</t>
@@ -7487,7 +7506,7 @@
       </c>
       <c r="L13" s="126" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="228">
+    <row r="14" ht="15" customHeight="1" s="225">
       <c r="C14" s="127" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -7511,7 +7530,7 @@
       </c>
       <c r="L14" s="132" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="228">
+    <row r="15" ht="15" customHeight="1" s="225">
       <c r="C15" s="97" t="n"/>
       <c r="D15" s="97" t="n"/>
       <c r="E15" s="97" t="n"/>
@@ -7523,94 +7542,94 @@
       <c r="K15" s="97" t="n"/>
       <c r="L15" s="97" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="228">
-      <c r="C16" s="239" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="225">
+      <c r="C16" s="253" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="240" t="n"/>
-      <c r="E16" s="240" t="n"/>
-      <c r="F16" s="240" t="n"/>
-      <c r="G16" s="240" t="n"/>
-      <c r="H16" s="240" t="n"/>
-      <c r="I16" s="240" t="n"/>
-      <c r="J16" s="240" t="n"/>
-      <c r="K16" s="240" t="n"/>
-      <c r="L16" s="240" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="228">
+      <c r="D16" s="254" t="n"/>
+      <c r="E16" s="254" t="n"/>
+      <c r="F16" s="254" t="n"/>
+      <c r="G16" s="254" t="n"/>
+      <c r="H16" s="254" t="n"/>
+      <c r="I16" s="254" t="n"/>
+      <c r="J16" s="254" t="n"/>
+      <c r="K16" s="254" t="n"/>
+      <c r="L16" s="254" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="225">
       <c r="C17" s="133" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="241" t="n"/>
-      <c r="E17" s="242" t="n"/>
-      <c r="F17" s="242" t="n"/>
-      <c r="G17" s="243" t="n"/>
-      <c r="H17" s="244" t="inlineStr">
+      <c r="D17" s="255" t="n"/>
+      <c r="E17" s="256" t="n"/>
+      <c r="F17" s="256" t="n"/>
+      <c r="G17" s="257" t="n"/>
+      <c r="H17" s="258" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="242" t="n"/>
-      <c r="J17" s="242" t="n"/>
-      <c r="K17" s="242" t="n"/>
-      <c r="L17" s="243" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="228">
+      <c r="I17" s="256" t="n"/>
+      <c r="J17" s="256" t="n"/>
+      <c r="K17" s="256" t="n"/>
+      <c r="L17" s="257" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="225">
       <c r="C18" s="134" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="247" t="n"/>
-      <c r="E18" s="240" t="n"/>
-      <c r="F18" s="240" t="n"/>
-      <c r="G18" s="246" t="n"/>
-      <c r="H18" s="245" t="n"/>
-      <c r="I18" s="240" t="n"/>
-      <c r="J18" s="240" t="n"/>
-      <c r="K18" s="240" t="n"/>
-      <c r="L18" s="246" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="228">
+      <c r="D18" s="261" t="n"/>
+      <c r="E18" s="254" t="n"/>
+      <c r="F18" s="254" t="n"/>
+      <c r="G18" s="260" t="n"/>
+      <c r="H18" s="259" t="n"/>
+      <c r="I18" s="254" t="n"/>
+      <c r="J18" s="254" t="n"/>
+      <c r="K18" s="254" t="n"/>
+      <c r="L18" s="260" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="225">
       <c r="C19" s="97" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="228">
+    <row r="20" ht="15" customHeight="1" s="225">
       <c r="A20" s="135" t="n"/>
       <c r="B20" s="135" t="n"/>
-      <c r="C20" s="248" t="inlineStr">
+      <c r="C20" s="262" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="242" t="n"/>
+      <c r="D20" s="256" t="n"/>
       <c r="E20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="236" t="n"/>
-      <c r="G20" s="248" t="inlineStr">
+      <c r="F20" s="250" t="n"/>
+      <c r="G20" s="262" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="242" t="n"/>
+      <c r="H20" s="256" t="n"/>
       <c r="I20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="236" t="n"/>
-      <c r="K20" s="248" t="inlineStr">
+      <c r="J20" s="250" t="n"/>
+      <c r="K20" s="262" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="242" t="n"/>
+      <c r="L20" s="256" t="n"/>
       <c r="M20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
@@ -7630,7 +7649,7 @@
       <c r="Y20" s="135" t="n"/>
       <c r="Z20" s="135" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="228">
+    <row r="21" ht="15" customHeight="1" s="225">
       <c r="C21" s="137" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -7671,7 +7690,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="228">
+    <row r="22" ht="15" customHeight="1" s="225">
       <c r="C22" s="145" t="n"/>
       <c r="D22" s="140" t="n"/>
       <c r="E22" s="146" t="n"/>
@@ -7704,7 +7723,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="228">
+    <row r="23" ht="15" customHeight="1" s="225">
       <c r="C23" s="137" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -7733,7 +7752,7 @@
       <c r="L23" s="140" t="n"/>
       <c r="M23" s="146" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="228">
+    <row r="24" ht="15" customHeight="1" s="225">
       <c r="C24" s="141" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -7766,7 +7785,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="228">
+    <row r="25" ht="15" customHeight="1" s="225">
       <c r="C25" s="141" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -7811,7 +7830,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="228">
+    <row r="26" ht="15" customHeight="1" s="225">
       <c r="C26" s="145" t="n"/>
       <c r="D26" s="140" t="n"/>
       <c r="E26" s="146" t="n"/>
@@ -7848,7 +7867,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="228">
+    <row r="27" ht="15" customHeight="1" s="225">
       <c r="C27" s="150" t="inlineStr">
         <is>
           <t>England</t>
@@ -7893,7 +7912,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="228">
+    <row r="28" ht="15" customHeight="1" s="225">
       <c r="C28" s="147" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -7914,7 +7933,7 @@
       <c r="L28" s="140" t="n"/>
       <c r="M28" s="146" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="228">
+    <row r="29" ht="15" customHeight="1" s="225">
       <c r="C29" s="147" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -7959,7 +7978,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="228">
+    <row r="30" ht="15" customHeight="1" s="225">
       <c r="C30" s="145" t="n"/>
       <c r="D30" s="140" t="n"/>
       <c r="E30" s="146" t="n"/>
@@ -7996,7 +8015,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="228">
+    <row r="31" ht="15" customHeight="1" s="225">
       <c r="C31" s="150" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -8029,7 +8048,7 @@
       <c r="L31" s="140" t="n"/>
       <c r="M31" s="146" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" s="228">
+    <row r="32" ht="15" customHeight="1" s="225">
       <c r="C32" s="153" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -8062,7 +8081,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="228">
+    <row r="33" ht="15" customHeight="1" s="225">
       <c r="C33" s="153" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -8107,7 +8126,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="228">
+    <row r="34" ht="15" customHeight="1" s="225">
       <c r="C34" s="145" t="n"/>
       <c r="D34" s="140" t="n"/>
       <c r="E34" s="146" t="n"/>
@@ -8144,7 +8163,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="228">
+    <row r="35" ht="15" customHeight="1" s="225">
       <c r="C35" s="156" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -8189,7 +8208,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="228">
+    <row r="36" ht="15" customHeight="1" s="225">
       <c r="C36" s="159" t="inlineStr">
         <is>
           <t>France</t>
@@ -8210,69 +8229,69 @@
       <c r="L36" s="163" t="n"/>
       <c r="M36" s="164" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1" s="228">
-      <c r="C38" s="239" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="225">
+      <c r="C38" s="253" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="240" t="n"/>
-      <c r="E38" s="240" t="n"/>
-      <c r="F38" s="240" t="n"/>
-      <c r="G38" s="240" t="n"/>
-      <c r="H38" s="240" t="n"/>
-      <c r="I38" s="240" t="n"/>
-      <c r="J38" s="240" t="n"/>
-      <c r="K38" s="240" t="n"/>
-      <c r="L38" s="240" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="228">
+      <c r="D38" s="254" t="n"/>
+      <c r="E38" s="254" t="n"/>
+      <c r="F38" s="254" t="n"/>
+      <c r="G38" s="254" t="n"/>
+      <c r="H38" s="254" t="n"/>
+      <c r="I38" s="254" t="n"/>
+      <c r="J38" s="254" t="n"/>
+      <c r="K38" s="254" t="n"/>
+      <c r="L38" s="254" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="225">
       <c r="C39" s="133" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="241" t="n"/>
-      <c r="E39" s="242" t="n"/>
-      <c r="F39" s="242" t="n"/>
-      <c r="G39" s="243" t="n"/>
-      <c r="H39" s="244" t="inlineStr">
+      <c r="D39" s="255" t="n"/>
+      <c r="E39" s="256" t="n"/>
+      <c r="F39" s="256" t="n"/>
+      <c r="G39" s="257" t="n"/>
+      <c r="H39" s="258" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="242" t="n"/>
-      <c r="J39" s="242" t="n"/>
-      <c r="K39" s="242" t="n"/>
-      <c r="L39" s="243" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="228">
+      <c r="I39" s="256" t="n"/>
+      <c r="J39" s="256" t="n"/>
+      <c r="K39" s="256" t="n"/>
+      <c r="L39" s="257" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="225">
       <c r="C40" s="134" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="247" t="n"/>
-      <c r="E40" s="240" t="n"/>
-      <c r="F40" s="240" t="n"/>
-      <c r="G40" s="246" t="n"/>
-      <c r="H40" s="245" t="n"/>
-      <c r="I40" s="240" t="n"/>
-      <c r="J40" s="240" t="n"/>
-      <c r="K40" s="240" t="n"/>
-      <c r="L40" s="246" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="228">
+      <c r="D40" s="261" t="n"/>
+      <c r="E40" s="254" t="n"/>
+      <c r="F40" s="254" t="n"/>
+      <c r="G40" s="260" t="n"/>
+      <c r="H40" s="259" t="n"/>
+      <c r="I40" s="254" t="n"/>
+      <c r="J40" s="254" t="n"/>
+      <c r="K40" s="254" t="n"/>
+      <c r="L40" s="260" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="225">
       <c r="B41" s="165" t="n"/>
       <c r="C41" s="166" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="228">
-      <c r="B42" s="249" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="225">
+      <c r="B42" s="263" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="240" t="n"/>
+      <c r="C42" s="254" t="n"/>
       <c r="D42" s="167" t="inlineStr">
         <is>
           <t>Results</t>
@@ -8316,12 +8335,12 @@
       </c>
       <c r="Q42" s="135" t="n"/>
       <c r="R42" s="168" t="n"/>
-      <c r="S42" s="236" t="n"/>
+      <c r="S42" s="250" t="n"/>
       <c r="U42" s="135" t="n"/>
       <c r="V42" s="168" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="228">
-      <c r="B43" s="250" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="225">
+      <c r="B43" s="244" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -8331,7 +8350,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="252" t="inlineStr">
+      <c r="D43" s="246" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -8347,16 +8366,16 @@
       <c r="U43" s="168" t="n"/>
       <c r="V43" s="168" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B44" s="251" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B44" s="245" t="n"/>
       <c r="C44" s="190" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="251" t="n"/>
+      <c r="D44" s="245" t="n"/>
       <c r="E44" s="169" t="n"/>
-      <c r="F44" s="253" t="inlineStr">
+      <c r="F44" s="248" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -8366,7 +8385,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="252" t="inlineStr">
+      <c r="H44" s="246" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -8380,18 +8399,18 @@
       <c r="U44" s="168" t="n"/>
       <c r="V44" s="168" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B45" s="135" t="n"/>
       <c r="C45" s="168" t="n"/>
       <c r="D45" s="170" t="n"/>
       <c r="E45" s="171" t="n"/>
-      <c r="F45" s="251" t="n"/>
+      <c r="F45" s="245" t="n"/>
       <c r="G45" s="205" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="251" t="n"/>
+      <c r="H45" s="245" t="n"/>
       <c r="O45" s="168" t="n"/>
       <c r="P45" s="168" t="n"/>
       <c r="Q45" s="168" t="n"/>
@@ -8401,8 +8420,8 @@
       <c r="U45" s="168" t="n"/>
       <c r="V45" s="168" t="n"/>
     </row>
-    <row r="46" ht="15" customHeight="1" s="228">
-      <c r="B46" s="250" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="225">
+      <c r="B46" s="244" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -8412,7 +8431,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="252" t="inlineStr">
+      <c r="D46" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8430,39 +8449,39 @@
       <c r="U46" s="168" t="n"/>
       <c r="V46" s="168" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B47" s="251" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B47" s="245" t="n"/>
       <c r="C47" s="192" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="251" t="n"/>
+      <c r="D47" s="245" t="n"/>
       <c r="E47" s="168" t="n"/>
       <c r="F47" s="168" t="n"/>
       <c r="G47" s="172" t="n"/>
       <c r="H47" s="174" t="n"/>
       <c r="I47" s="171" t="n"/>
-      <c r="J47" s="254" t="inlineStr">
+      <c r="J47" s="247" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
       </c>
-      <c r="K47" s="260" t="inlineStr">
+      <c r="K47" s="220" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L47" s="252" t="n"/>
+      <c r="L47" s="246" t="n"/>
       <c r="O47" s="168" t="n"/>
       <c r="P47" s="168" t="n"/>
       <c r="Q47" s="168" t="n"/>
       <c r="R47" s="168" t="n"/>
-      <c r="S47" s="236" t="n"/>
+      <c r="S47" s="250" t="n"/>
       <c r="U47" s="135" t="n"/>
       <c r="V47" s="168" t="n"/>
     </row>
-    <row r="48" ht="15" customHeight="1" s="228">
+    <row r="48" ht="15" customHeight="1" s="225">
       <c r="B48" s="135" t="n"/>
       <c r="C48" s="168" t="n"/>
       <c r="D48" s="170" t="n"/>
@@ -8470,13 +8489,13 @@
       <c r="F48" s="168" t="n"/>
       <c r="G48" s="172" t="n"/>
       <c r="H48" s="174" t="n"/>
-      <c r="J48" s="251" t="n"/>
-      <c r="K48" s="261" t="inlineStr">
+      <c r="J48" s="245" t="n"/>
+      <c r="K48" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L48" s="251" t="n"/>
+      <c r="L48" s="245" t="n"/>
       <c r="O48" s="168" t="n"/>
       <c r="P48" s="168" t="n"/>
       <c r="Q48" s="168" t="n"/>
@@ -8486,8 +8505,8 @@
       <c r="U48" s="168" t="n"/>
       <c r="V48" s="168" t="n"/>
     </row>
-    <row r="49" ht="15" customHeight="1" s="228">
-      <c r="B49" s="250" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="225">
+      <c r="B49" s="244" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -8497,7 +8516,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="252" t="inlineStr">
+      <c r="D49" s="246" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -8509,16 +8528,16 @@
       <c r="K49" s="140" t="n"/>
       <c r="L49" s="173" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B50" s="251" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B50" s="245" t="n"/>
       <c r="C50" s="194" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="251" t="n"/>
+      <c r="D50" s="245" t="n"/>
       <c r="E50" s="171" t="n"/>
-      <c r="F50" s="253" t="inlineStr">
+      <c r="F50" s="248" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -8528,7 +8547,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="252" t="inlineStr">
+      <c r="H50" s="246" t="inlineStr">
         <is>
           <t>2-3</t>
         </is>
@@ -8536,23 +8555,23 @@
       <c r="K50" s="140" t="n"/>
       <c r="L50" s="174" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B51" s="135" t="n"/>
       <c r="C51" s="168" t="n"/>
       <c r="D51" s="170" t="n"/>
       <c r="E51" s="171" t="n"/>
-      <c r="F51" s="251" t="n"/>
-      <c r="G51" s="206" t="inlineStr">
+      <c r="F51" s="245" t="n"/>
+      <c r="G51" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="251" t="n"/>
+      <c r="H51" s="245" t="n"/>
       <c r="K51" s="140" t="n"/>
       <c r="L51" s="174" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B52" s="250" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B52" s="244" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -8562,7 +8581,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="252" t="inlineStr">
+      <c r="D52" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8574,7 +8593,7 @@
       <c r="K52" s="140" t="n"/>
       <c r="L52" s="174" t="n"/>
       <c r="M52" s="171" t="n"/>
-      <c r="N52" s="255" t="inlineStr">
+      <c r="N52" s="249" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -8584,31 +8603,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="252" t="n"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" s="228">
-      <c r="B53" s="251" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="P52" s="246" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="225">
+      <c r="B53" s="245" t="n"/>
+      <c r="C53" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="251" t="n"/>
+      <c r="D53" s="245" t="n"/>
       <c r="E53" s="168" t="n"/>
       <c r="F53" s="168" t="n"/>
       <c r="G53" s="172" t="n"/>
       <c r="H53" s="170" t="n"/>
       <c r="K53" s="140" t="n"/>
       <c r="L53" s="174" t="n"/>
-      <c r="N53" s="251" t="n"/>
+      <c r="N53" s="245" t="n"/>
       <c r="O53" s="162" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="251" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="228">
+      <c r="P53" s="245" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="225">
       <c r="B54" s="135" t="n"/>
       <c r="C54" s="168" t="n"/>
       <c r="D54" s="170" t="n"/>
@@ -8619,8 +8638,8 @@
       <c r="K54" s="140" t="n"/>
       <c r="L54" s="174" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="228">
-      <c r="B55" s="250" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="225">
+      <c r="B55" s="244" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -8630,7 +8649,7 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="252" t="inlineStr">
+      <c r="D55" s="246" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8642,26 +8661,26 @@
       <c r="K55" s="140" t="n"/>
       <c r="L55" s="174" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B56" s="251" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B56" s="245" t="n"/>
       <c r="C56" s="190" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="251" t="n"/>
+      <c r="D56" s="245" t="n"/>
       <c r="E56" s="169" t="n"/>
-      <c r="F56" s="253" t="inlineStr">
+      <c r="F56" s="248" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="214" t="inlineStr">
+      <c r="G56" s="210" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="H56" s="252" t="inlineStr">
+      <c r="H56" s="246" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
@@ -8669,22 +8688,22 @@
       <c r="K56" s="140" t="n"/>
       <c r="L56" s="174" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B57" s="135" t="n"/>
       <c r="D57" s="170" t="n"/>
       <c r="E57" s="177" t="n"/>
-      <c r="F57" s="251" t="n"/>
-      <c r="G57" s="215" t="inlineStr">
+      <c r="F57" s="245" t="n"/>
+      <c r="G57" s="211" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H57" s="251" t="n"/>
+      <c r="H57" s="245" t="n"/>
       <c r="K57" s="140" t="n"/>
       <c r="L57" s="174" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" s="228">
-      <c r="B58" s="250" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="225">
+      <c r="B58" s="244" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -8694,7 +8713,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="252" t="inlineStr">
+      <c r="D58" s="246" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -8704,44 +8723,44 @@
       <c r="K58" s="140" t="n"/>
       <c r="L58" s="176" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B59" s="251" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B59" s="245" t="n"/>
       <c r="C59" s="192" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="251" t="n"/>
+      <c r="D59" s="245" t="n"/>
       <c r="G59" s="172" t="n"/>
       <c r="H59" s="174" t="n"/>
       <c r="I59" s="171" t="n"/>
-      <c r="J59" s="254" t="inlineStr">
+      <c r="J59" s="247" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
       </c>
-      <c r="K59" s="262" t="inlineStr">
+      <c r="K59" s="222" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L59" s="252" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="228">
+      <c r="L59" s="246" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="225">
       <c r="B60" s="135" t="n"/>
       <c r="D60" s="170" t="n"/>
       <c r="G60" s="172" t="n"/>
       <c r="H60" s="174" t="n"/>
-      <c r="J60" s="251" t="n"/>
-      <c r="K60" s="263" t="inlineStr">
+      <c r="J60" s="245" t="n"/>
+      <c r="K60" s="223" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L60" s="251" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="228">
-      <c r="B61" s="250" t="inlineStr">
+      <c r="L60" s="245" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="225">
+      <c r="B61" s="244" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -8751,7 +8770,7 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="252" t="inlineStr">
+      <c r="D61" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -8759,16 +8778,16 @@
       <c r="G61" s="172" t="n"/>
       <c r="H61" s="176" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B62" s="251" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B62" s="245" t="n"/>
       <c r="C62" s="198" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="251" t="n"/>
+      <c r="D62" s="245" t="n"/>
       <c r="E62" s="169" t="n"/>
-      <c r="F62" s="253" t="inlineStr">
+      <c r="F62" s="248" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -8778,26 +8797,26 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="252" t="inlineStr">
+      <c r="H62" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="63" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B63" s="135" t="n"/>
       <c r="D63" s="170" t="n"/>
       <c r="E63" s="177" t="n"/>
-      <c r="F63" s="251" t="n"/>
+      <c r="F63" s="245" t="n"/>
       <c r="G63" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="251" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1" s="228">
-      <c r="B64" s="250" t="inlineStr">
+      <c r="H63" s="245" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="225">
+      <c r="B64" s="244" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -8807,54 +8826,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="252" t="inlineStr">
+      <c r="D64" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="228">
-      <c r="B65" s="251" t="n"/>
+    <row r="65" ht="15" customHeight="1" s="225">
+      <c r="B65" s="245" t="n"/>
       <c r="C65" s="199" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="251" t="n"/>
+      <c r="D65" s="245" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -8869,6 +8857,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -8883,37 +8902,37 @@
   </sheetPr>
   <dimension ref="A2:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col width="2.42578125" customWidth="1" style="237" min="1" max="1"/>
-    <col width="4.42578125" customWidth="1" style="237" min="2" max="2"/>
-    <col width="16.7109375" customWidth="1" style="237" min="3" max="4"/>
-    <col width="8.7109375" customWidth="1" style="237" min="5" max="5"/>
-    <col width="4.42578125" customWidth="1" style="237" min="6" max="6"/>
-    <col width="16.7109375" customWidth="1" style="237" min="7" max="8"/>
-    <col width="7.42578125" customWidth="1" style="237" min="9" max="9"/>
-    <col width="4" customWidth="1" style="237" min="10" max="10"/>
-    <col width="16.85546875" customWidth="1" style="237" min="11" max="12"/>
-    <col width="8.7109375" customWidth="1" style="237" min="13" max="13"/>
-    <col width="4.140625" customWidth="1" style="237" min="14" max="14"/>
-    <col width="16.7109375" customWidth="1" style="237" min="15" max="17"/>
-    <col width="8.7109375" customWidth="1" style="237" min="18" max="26"/>
-    <col width="14.42578125" customWidth="1" style="237" min="27" max="42"/>
-    <col width="14.42578125" customWidth="1" style="237" min="43" max="16384"/>
+    <col width="2.42578125" customWidth="1" style="251" min="1" max="1"/>
+    <col width="4.42578125" customWidth="1" style="251" min="2" max="2"/>
+    <col width="16.7109375" customWidth="1" style="251" min="3" max="4"/>
+    <col width="8.7109375" customWidth="1" style="251" min="5" max="5"/>
+    <col width="4.42578125" customWidth="1" style="251" min="6" max="6"/>
+    <col width="16.7109375" customWidth="1" style="251" min="7" max="8"/>
+    <col width="7.42578125" customWidth="1" style="251" min="9" max="9"/>
+    <col width="4" customWidth="1" style="251" min="10" max="10"/>
+    <col width="16.85546875" customWidth="1" style="251" min="11" max="12"/>
+    <col width="8.7109375" customWidth="1" style="251" min="13" max="13"/>
+    <col width="4.140625" customWidth="1" style="251" min="14" max="14"/>
+    <col width="16.7109375" customWidth="1" style="251" min="15" max="17"/>
+    <col width="8.7109375" customWidth="1" style="251" min="18" max="26"/>
+    <col width="14.42578125" customWidth="1" style="251" min="27" max="43"/>
+    <col width="14.42578125" customWidth="1" style="251" min="44" max="16384"/>
   </cols>
   <sheetData>
-    <row r="2" ht="26.25" customHeight="1" s="228">
-      <c r="C2" s="238" t="inlineStr">
+    <row r="2" ht="26.25" customHeight="1" s="225">
+      <c r="C2" s="252" t="inlineStr">
         <is>
           <t xml:space="preserve">EURO 2020 </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="228">
+    <row r="4" ht="15" customHeight="1" s="225">
       <c r="C4" s="95" t="inlineStr">
         <is>
           <t>Group A</t>
@@ -8949,7 +8968,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="228">
+    <row r="5" ht="15" customHeight="1" s="225">
       <c r="C5" s="103" t="inlineStr">
         <is>
           <t>Italy</t>
@@ -8973,7 +8992,7 @@
       </c>
       <c r="L5" s="108" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="228">
+    <row r="6" ht="15" customHeight="1" s="225">
       <c r="C6" s="103" t="inlineStr">
         <is>
           <t>Switzerland</t>
@@ -8997,7 +9016,7 @@
       </c>
       <c r="L6" s="108" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="228">
+    <row r="7" ht="15" customHeight="1" s="225">
       <c r="C7" s="103" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -9021,7 +9040,7 @@
       </c>
       <c r="L7" s="108" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1" s="228">
+    <row r="8" ht="15" customHeight="1" s="225">
       <c r="C8" s="109" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -9045,7 +9064,7 @@
       </c>
       <c r="L8" s="114" t="n"/>
     </row>
-    <row r="9" ht="15" customHeight="1" s="228">
+    <row r="9" ht="15" customHeight="1" s="225">
       <c r="C9" s="97" t="n"/>
       <c r="D9" s="97" t="n"/>
       <c r="E9" s="97" t="n"/>
@@ -9057,7 +9076,7 @@
       <c r="K9" s="97" t="n"/>
       <c r="L9" s="97" t="n"/>
     </row>
-    <row r="10" ht="15" customHeight="1" s="228">
+    <row r="10" ht="15" customHeight="1" s="225">
       <c r="C10" s="115" t="inlineStr">
         <is>
           <t>Group D</t>
@@ -9093,7 +9112,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="228">
+    <row r="11" ht="15" customHeight="1" s="225">
       <c r="C11" s="121" t="inlineStr">
         <is>
           <t>Croatia</t>
@@ -9117,7 +9136,7 @@
       </c>
       <c r="L11" s="126" t="n"/>
     </row>
-    <row r="12" ht="15" customHeight="1" s="228">
+    <row r="12" ht="15" customHeight="1" s="225">
       <c r="C12" s="121" t="inlineStr">
         <is>
           <t>Czech Republic</t>
@@ -9141,7 +9160,7 @@
       </c>
       <c r="L12" s="126" t="n"/>
     </row>
-    <row r="13" ht="15" customHeight="1" s="228">
+    <row r="13" ht="15" customHeight="1" s="225">
       <c r="C13" s="121" t="inlineStr">
         <is>
           <t>England</t>
@@ -9165,7 +9184,7 @@
       </c>
       <c r="L13" s="126" t="n"/>
     </row>
-    <row r="14" ht="15" customHeight="1" s="228">
+    <row r="14" ht="15" customHeight="1" s="225">
       <c r="C14" s="127" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -9189,7 +9208,7 @@
       </c>
       <c r="L14" s="132" t="n"/>
     </row>
-    <row r="15" ht="15" customHeight="1" s="228">
+    <row r="15" ht="15" customHeight="1" s="225">
       <c r="C15" s="97" t="n"/>
       <c r="D15" s="97" t="n"/>
       <c r="E15" s="97" t="n"/>
@@ -9201,94 +9220,94 @@
       <c r="K15" s="97" t="n"/>
       <c r="L15" s="97" t="n"/>
     </row>
-    <row r="16" ht="15" customHeight="1" s="228">
-      <c r="C16" s="239" t="inlineStr">
+    <row r="16" ht="15" customHeight="1" s="225">
+      <c r="C16" s="253" t="inlineStr">
         <is>
           <t>Group Stage predictions are made in a single submission and are due by Thursday Evening June 10th, 2021.</t>
         </is>
       </c>
-      <c r="D16" s="240" t="n"/>
-      <c r="E16" s="240" t="n"/>
-      <c r="F16" s="240" t="n"/>
-      <c r="G16" s="240" t="n"/>
-      <c r="H16" s="240" t="n"/>
-      <c r="I16" s="240" t="n"/>
-      <c r="J16" s="240" t="n"/>
-      <c r="K16" s="240" t="n"/>
-      <c r="L16" s="240" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="228">
+      <c r="D16" s="254" t="n"/>
+      <c r="E16" s="254" t="n"/>
+      <c r="F16" s="254" t="n"/>
+      <c r="G16" s="254" t="n"/>
+      <c r="H16" s="254" t="n"/>
+      <c r="I16" s="254" t="n"/>
+      <c r="J16" s="254" t="n"/>
+      <c r="K16" s="254" t="n"/>
+      <c r="L16" s="254" t="n"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" s="225">
       <c r="C17" s="133" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D17" s="241" t="n"/>
-      <c r="E17" s="242" t="n"/>
-      <c r="F17" s="242" t="n"/>
-      <c r="G17" s="243" t="n"/>
-      <c r="H17" s="244" t="inlineStr">
+      <c r="D17" s="255" t="n"/>
+      <c r="E17" s="256" t="n"/>
+      <c r="F17" s="256" t="n"/>
+      <c r="G17" s="257" t="n"/>
+      <c r="H17" s="258" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULT         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I17" s="242" t="n"/>
-      <c r="J17" s="242" t="n"/>
-      <c r="K17" s="242" t="n"/>
-      <c r="L17" s="243" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="228">
+      <c r="I17" s="256" t="n"/>
+      <c r="J17" s="256" t="n"/>
+      <c r="K17" s="256" t="n"/>
+      <c r="L17" s="257" t="n"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" s="225">
       <c r="C18" s="134" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D18" s="247" t="n"/>
-      <c r="E18" s="240" t="n"/>
-      <c r="F18" s="240" t="n"/>
-      <c r="G18" s="246" t="n"/>
-      <c r="H18" s="245" t="n"/>
-      <c r="I18" s="240" t="n"/>
-      <c r="J18" s="240" t="n"/>
-      <c r="K18" s="240" t="n"/>
-      <c r="L18" s="246" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="228">
+      <c r="D18" s="261" t="n"/>
+      <c r="E18" s="254" t="n"/>
+      <c r="F18" s="254" t="n"/>
+      <c r="G18" s="260" t="n"/>
+      <c r="H18" s="259" t="n"/>
+      <c r="I18" s="254" t="n"/>
+      <c r="J18" s="254" t="n"/>
+      <c r="K18" s="254" t="n"/>
+      <c r="L18" s="260" t="n"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" s="225">
       <c r="C19" s="97" t="n"/>
     </row>
-    <row r="20" ht="15" customHeight="1" s="228">
+    <row r="20" ht="15" customHeight="1" s="225">
       <c r="A20" s="135" t="n"/>
       <c r="B20" s="135" t="n"/>
-      <c r="C20" s="248" t="inlineStr">
+      <c r="C20" s="262" t="inlineStr">
         <is>
           <t>Match Day 1</t>
         </is>
       </c>
-      <c r="D20" s="242" t="n"/>
+      <c r="D20" s="256" t="n"/>
       <c r="E20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="F20" s="236" t="n"/>
-      <c r="G20" s="248" t="inlineStr">
+      <c r="F20" s="250" t="n"/>
+      <c r="G20" s="262" t="inlineStr">
         <is>
           <t>Match Day 2</t>
         </is>
       </c>
-      <c r="H20" s="242" t="n"/>
+      <c r="H20" s="256" t="n"/>
       <c r="I20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
         </is>
       </c>
-      <c r="J20" s="236" t="n"/>
-      <c r="K20" s="248" t="inlineStr">
+      <c r="J20" s="250" t="n"/>
+      <c r="K20" s="262" t="inlineStr">
         <is>
           <t>Match Day 3</t>
         </is>
       </c>
-      <c r="L20" s="242" t="n"/>
+      <c r="L20" s="256" t="n"/>
       <c r="M20" s="136" t="inlineStr">
         <is>
           <t>Results</t>
@@ -9308,7 +9327,7 @@
       <c r="Y20" s="135" t="n"/>
       <c r="Z20" s="135" t="n"/>
     </row>
-    <row r="21" ht="15" customHeight="1" s="228">
+    <row r="21" ht="15" customHeight="1" s="225">
       <c r="C21" s="137" t="inlineStr">
         <is>
           <t>Turkey</t>
@@ -9349,7 +9368,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="228">
+    <row r="22" ht="15" customHeight="1" s="225">
       <c r="C22" s="145" t="n"/>
       <c r="D22" s="140" t="n"/>
       <c r="E22" s="146" t="n"/>
@@ -9382,7 +9401,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="228">
+    <row r="23" ht="15" customHeight="1" s="225">
       <c r="C23" s="137" t="inlineStr">
         <is>
           <t>Wales</t>
@@ -9411,7 +9430,7 @@
       <c r="L23" s="140" t="n"/>
       <c r="M23" s="146" t="n"/>
     </row>
-    <row r="24" ht="15" customHeight="1" s="228">
+    <row r="24" ht="15" customHeight="1" s="225">
       <c r="C24" s="141" t="inlineStr">
         <is>
           <t>Denmark</t>
@@ -9444,7 +9463,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="228">
+    <row r="25" ht="15" customHeight="1" s="225">
       <c r="C25" s="141" t="inlineStr">
         <is>
           <t>Belgium</t>
@@ -9489,7 +9508,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="228">
+    <row r="26" ht="15" customHeight="1" s="225">
       <c r="C26" s="145" t="n"/>
       <c r="D26" s="140" t="n"/>
       <c r="E26" s="146" t="n"/>
@@ -9526,7 +9545,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="228">
+    <row r="27" ht="15" customHeight="1" s="225">
       <c r="C27" s="150" t="inlineStr">
         <is>
           <t>England</t>
@@ -9571,7 +9590,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="228">
+    <row r="28" ht="15" customHeight="1" s="225">
       <c r="C28" s="147" t="inlineStr">
         <is>
           <t>Austria</t>
@@ -9592,7 +9611,7 @@
       <c r="L28" s="140" t="n"/>
       <c r="M28" s="146" t="n"/>
     </row>
-    <row r="29" ht="15" customHeight="1" s="228">
+    <row r="29" ht="15" customHeight="1" s="225">
       <c r="C29" s="147" t="inlineStr">
         <is>
           <t>Netherlands</t>
@@ -9637,7 +9656,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="228">
+    <row r="30" ht="15" customHeight="1" s="225">
       <c r="C30" s="145" t="n"/>
       <c r="D30" s="140" t="n"/>
       <c r="E30" s="146" t="n"/>
@@ -9674,7 +9693,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="228">
+    <row r="31" ht="15" customHeight="1" s="225">
       <c r="C31" s="150" t="inlineStr">
         <is>
           <t>Scotland</t>
@@ -9707,7 +9726,7 @@
       <c r="L31" s="140" t="n"/>
       <c r="M31" s="146" t="n"/>
     </row>
-    <row r="32" ht="15" customHeight="1" s="228">
+    <row r="32" ht="15" customHeight="1" s="225">
       <c r="C32" s="153" t="inlineStr">
         <is>
           <t>Poland</t>
@@ -9740,7 +9759,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="228">
+    <row r="33" ht="15" customHeight="1" s="225">
       <c r="C33" s="153" t="inlineStr">
         <is>
           <t>Spain</t>
@@ -9785,7 +9804,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="228">
+    <row r="34" ht="15" customHeight="1" s="225">
       <c r="C34" s="145" t="n"/>
       <c r="D34" s="140" t="n"/>
       <c r="E34" s="146" t="n"/>
@@ -9822,7 +9841,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="228">
+    <row r="35" ht="15" customHeight="1" s="225">
       <c r="C35" s="156" t="inlineStr">
         <is>
           <t>Hungary</t>
@@ -9867,7 +9886,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="228">
+    <row r="36" ht="15" customHeight="1" s="225">
       <c r="C36" s="159" t="inlineStr">
         <is>
           <t>France</t>
@@ -9888,69 +9907,69 @@
       <c r="L36" s="163" t="n"/>
       <c r="M36" s="164" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1" s="228">
-      <c r="C38" s="239" t="inlineStr">
+    <row r="38" ht="15" customHeight="1" s="225">
+      <c r="C38" s="253" t="inlineStr">
         <is>
           <t xml:space="preserve">We'll do the competition in two halves since the Round of 16 is heavily dependent on the Group Stages. </t>
         </is>
       </c>
-      <c r="D38" s="240" t="n"/>
-      <c r="E38" s="240" t="n"/>
-      <c r="F38" s="240" t="n"/>
-      <c r="G38" s="240" t="n"/>
-      <c r="H38" s="240" t="n"/>
-      <c r="I38" s="240" t="n"/>
-      <c r="J38" s="240" t="n"/>
-      <c r="K38" s="240" t="n"/>
-      <c r="L38" s="240" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1" s="228">
+      <c r="D38" s="254" t="n"/>
+      <c r="E38" s="254" t="n"/>
+      <c r="F38" s="254" t="n"/>
+      <c r="G38" s="254" t="n"/>
+      <c r="H38" s="254" t="n"/>
+      <c r="I38" s="254" t="n"/>
+      <c r="J38" s="254" t="n"/>
+      <c r="K38" s="254" t="n"/>
+      <c r="L38" s="254" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" s="225">
       <c r="C39" s="133" t="inlineStr">
         <is>
           <t>Name:</t>
         </is>
       </c>
-      <c r="D39" s="241" t="n"/>
-      <c r="E39" s="242" t="n"/>
-      <c r="F39" s="242" t="n"/>
-      <c r="G39" s="243" t="n"/>
-      <c r="H39" s="244" t="inlineStr">
+      <c r="D39" s="255" t="n"/>
+      <c r="E39" s="256" t="n"/>
+      <c r="F39" s="256" t="n"/>
+      <c r="G39" s="257" t="n"/>
+      <c r="H39" s="258" t="inlineStr">
         <is>
           <t>Enter your predictions for the scores. 1 Point for a correct RESULTS         +1 Point for a correct SCORE.</t>
         </is>
       </c>
-      <c r="I39" s="242" t="n"/>
-      <c r="J39" s="242" t="n"/>
-      <c r="K39" s="242" t="n"/>
-      <c r="L39" s="243" t="n"/>
-    </row>
-    <row r="40" ht="15" customHeight="1" s="228">
+      <c r="I39" s="256" t="n"/>
+      <c r="J39" s="256" t="n"/>
+      <c r="K39" s="256" t="n"/>
+      <c r="L39" s="257" t="n"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" s="225">
       <c r="C40" s="134" t="inlineStr">
         <is>
           <t>Date:</t>
         </is>
       </c>
-      <c r="D40" s="247" t="n"/>
-      <c r="E40" s="240" t="n"/>
-      <c r="F40" s="240" t="n"/>
-      <c r="G40" s="246" t="n"/>
-      <c r="H40" s="245" t="n"/>
-      <c r="I40" s="240" t="n"/>
-      <c r="J40" s="240" t="n"/>
-      <c r="K40" s="240" t="n"/>
-      <c r="L40" s="246" t="n"/>
-    </row>
-    <row r="41" ht="15" customHeight="1" s="228">
+      <c r="D40" s="261" t="n"/>
+      <c r="E40" s="254" t="n"/>
+      <c r="F40" s="254" t="n"/>
+      <c r="G40" s="260" t="n"/>
+      <c r="H40" s="259" t="n"/>
+      <c r="I40" s="254" t="n"/>
+      <c r="J40" s="254" t="n"/>
+      <c r="K40" s="254" t="n"/>
+      <c r="L40" s="260" t="n"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" s="225">
       <c r="B41" s="165" t="n"/>
       <c r="C41" s="166" t="n"/>
     </row>
-    <row r="42" ht="15" customHeight="1" s="228">
-      <c r="B42" s="249" t="inlineStr">
+    <row r="42" ht="15" customHeight="1" s="225">
+      <c r="B42" s="263" t="inlineStr">
         <is>
           <t>Round of 16</t>
         </is>
       </c>
-      <c r="C42" s="240" t="n"/>
+      <c r="C42" s="254" t="n"/>
       <c r="D42" s="167" t="inlineStr">
         <is>
           <t>Results</t>
@@ -9994,12 +10013,12 @@
       </c>
       <c r="Q42" s="135" t="n"/>
       <c r="R42" s="168" t="n"/>
-      <c r="S42" s="236" t="n"/>
+      <c r="S42" s="250" t="n"/>
       <c r="U42" s="135" t="n"/>
       <c r="V42" s="168" t="n"/>
     </row>
-    <row r="43" ht="15" customHeight="1" s="228">
-      <c r="B43" s="250" t="inlineStr">
+    <row r="43" ht="15" customHeight="1" s="225">
+      <c r="B43" s="244" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
@@ -10009,7 +10028,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D43" s="252" t="inlineStr">
+      <c r="D43" s="246" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -10025,16 +10044,16 @@
       <c r="U43" s="168" t="n"/>
       <c r="V43" s="168" t="n"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B44" s="251" t="n"/>
+    <row r="44" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B44" s="245" t="n"/>
       <c r="C44" s="190" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="D44" s="251" t="n"/>
+      <c r="D44" s="245" t="n"/>
       <c r="E44" s="169" t="n"/>
-      <c r="F44" s="253" t="inlineStr">
+      <c r="F44" s="248" t="inlineStr">
         <is>
           <t>QF1</t>
         </is>
@@ -10044,7 +10063,7 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="H44" s="252" t="inlineStr">
+      <c r="H44" s="246" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -10058,18 +10077,18 @@
       <c r="U44" s="168" t="n"/>
       <c r="V44" s="168" t="n"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="45" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B45" s="135" t="n"/>
       <c r="C45" s="168" t="n"/>
       <c r="D45" s="170" t="n"/>
       <c r="E45" s="171" t="n"/>
-      <c r="F45" s="251" t="n"/>
+      <c r="F45" s="245" t="n"/>
       <c r="G45" s="205" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="H45" s="251" t="n"/>
+      <c r="H45" s="245" t="n"/>
       <c r="O45" s="168" t="n"/>
       <c r="P45" s="168" t="n"/>
       <c r="Q45" s="168" t="n"/>
@@ -10079,8 +10098,8 @@
       <c r="U45" s="168" t="n"/>
       <c r="V45" s="168" t="n"/>
     </row>
-    <row r="46" ht="15" customHeight="1" s="228">
-      <c r="B46" s="250" t="inlineStr">
+    <row r="46" ht="15" customHeight="1" s="225">
+      <c r="B46" s="244" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
@@ -10090,7 +10109,7 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D46" s="252" t="inlineStr">
+      <c r="D46" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -10108,39 +10127,39 @@
       <c r="U46" s="168" t="n"/>
       <c r="V46" s="168" t="n"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B47" s="251" t="n"/>
+    <row r="47" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B47" s="245" t="n"/>
       <c r="C47" s="192" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D47" s="251" t="n"/>
+      <c r="D47" s="245" t="n"/>
       <c r="E47" s="168" t="n"/>
       <c r="F47" s="168" t="n"/>
       <c r="G47" s="172" t="n"/>
       <c r="H47" s="174" t="n"/>
       <c r="I47" s="171" t="n"/>
-      <c r="J47" s="254" t="inlineStr">
+      <c r="J47" s="247" t="inlineStr">
         <is>
           <t>SF1</t>
         </is>
       </c>
-      <c r="K47" s="260" t="inlineStr">
+      <c r="K47" s="220" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L47" s="252" t="n"/>
+      <c r="L47" s="246" t="n"/>
       <c r="O47" s="168" t="n"/>
       <c r="P47" s="168" t="n"/>
       <c r="Q47" s="168" t="n"/>
       <c r="R47" s="168" t="n"/>
-      <c r="S47" s="236" t="n"/>
+      <c r="S47" s="250" t="n"/>
       <c r="U47" s="135" t="n"/>
       <c r="V47" s="168" t="n"/>
     </row>
-    <row r="48" ht="15" customHeight="1" s="228">
+    <row r="48" ht="15" customHeight="1" s="225">
       <c r="B48" s="135" t="n"/>
       <c r="C48" s="168" t="n"/>
       <c r="D48" s="170" t="n"/>
@@ -10148,13 +10167,13 @@
       <c r="F48" s="168" t="n"/>
       <c r="G48" s="172" t="n"/>
       <c r="H48" s="174" t="n"/>
-      <c r="J48" s="251" t="n"/>
-      <c r="K48" s="261" t="inlineStr">
+      <c r="J48" s="245" t="n"/>
+      <c r="K48" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L48" s="251" t="n"/>
+      <c r="L48" s="245" t="n"/>
       <c r="O48" s="168" t="n"/>
       <c r="P48" s="168" t="n"/>
       <c r="Q48" s="168" t="n"/>
@@ -10164,8 +10183,8 @@
       <c r="U48" s="168" t="n"/>
       <c r="V48" s="168" t="n"/>
     </row>
-    <row r="49" ht="15" customHeight="1" s="228">
-      <c r="B49" s="250" t="inlineStr">
+    <row r="49" ht="15" customHeight="1" s="225">
+      <c r="B49" s="244" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
@@ -10175,7 +10194,7 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D49" s="252" t="inlineStr">
+      <c r="D49" s="246" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -10187,16 +10206,16 @@
       <c r="K49" s="140" t="n"/>
       <c r="L49" s="173" t="n"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B50" s="251" t="n"/>
+    <row r="50" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B50" s="245" t="n"/>
       <c r="C50" s="194" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D50" s="251" t="n"/>
+      <c r="D50" s="245" t="n"/>
       <c r="E50" s="171" t="n"/>
-      <c r="F50" s="253" t="inlineStr">
+      <c r="F50" s="248" t="inlineStr">
         <is>
           <t>QF2</t>
         </is>
@@ -10206,7 +10225,7 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="H50" s="252" t="inlineStr">
+      <c r="H50" s="246" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -10214,23 +10233,23 @@
       <c r="K50" s="140" t="n"/>
       <c r="L50" s="174" t="n"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="51" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B51" s="135" t="n"/>
       <c r="C51" s="168" t="n"/>
       <c r="D51" s="170" t="n"/>
       <c r="E51" s="171" t="n"/>
-      <c r="F51" s="251" t="n"/>
-      <c r="G51" s="206" t="inlineStr">
+      <c r="F51" s="245" t="n"/>
+      <c r="G51" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="H51" s="251" t="n"/>
+      <c r="H51" s="245" t="n"/>
       <c r="K51" s="140" t="n"/>
       <c r="L51" s="174" t="n"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B52" s="250" t="inlineStr">
+    <row r="52" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B52" s="244" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
@@ -10240,7 +10259,7 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D52" s="252" t="inlineStr">
+      <c r="D52" s="246" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
@@ -10252,7 +10271,7 @@
       <c r="K52" s="140" t="n"/>
       <c r="L52" s="174" t="n"/>
       <c r="M52" s="171" t="n"/>
-      <c r="N52" s="255" t="inlineStr">
+      <c r="N52" s="249" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -10262,31 +10281,31 @@
           <t>Winner SF1</t>
         </is>
       </c>
-      <c r="P52" s="252" t="n"/>
-    </row>
-    <row r="53" ht="15" customHeight="1" s="228">
-      <c r="B53" s="251" t="n"/>
-      <c r="C53" s="206" t="inlineStr">
+      <c r="P52" s="246" t="n"/>
+    </row>
+    <row r="53" ht="15" customHeight="1" s="225">
+      <c r="B53" s="245" t="n"/>
+      <c r="C53" s="221" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="D53" s="251" t="n"/>
+      <c r="D53" s="245" t="n"/>
       <c r="E53" s="168" t="n"/>
       <c r="F53" s="168" t="n"/>
       <c r="G53" s="172" t="n"/>
       <c r="H53" s="170" t="n"/>
       <c r="K53" s="140" t="n"/>
       <c r="L53" s="174" t="n"/>
-      <c r="N53" s="251" t="n"/>
+      <c r="N53" s="245" t="n"/>
       <c r="O53" s="162" t="inlineStr">
         <is>
           <t>Winner SF2</t>
         </is>
       </c>
-      <c r="P53" s="251" t="n"/>
-    </row>
-    <row r="54" ht="15" customHeight="1" s="228">
+      <c r="P53" s="245" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1" s="225">
       <c r="B54" s="135" t="n"/>
       <c r="C54" s="168" t="n"/>
       <c r="D54" s="170" t="n"/>
@@ -10297,8 +10316,8 @@
       <c r="K54" s="140" t="n"/>
       <c r="L54" s="174" t="n"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="228">
-      <c r="B55" s="250" t="inlineStr">
+    <row r="55" ht="15" customHeight="1" s="225">
+      <c r="B55" s="244" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
@@ -10308,7 +10327,7 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D55" s="252" t="inlineStr">
+      <c r="D55" s="246" t="inlineStr">
         <is>
           <t>1-0</t>
         </is>
@@ -10320,26 +10339,26 @@
       <c r="K55" s="140" t="n"/>
       <c r="L55" s="174" t="n"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B56" s="251" t="n"/>
+    <row r="56" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B56" s="245" t="n"/>
       <c r="C56" s="190" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="D56" s="251" t="n"/>
+      <c r="D56" s="245" t="n"/>
       <c r="E56" s="169" t="n"/>
-      <c r="F56" s="253" t="inlineStr">
+      <c r="F56" s="248" t="inlineStr">
         <is>
           <t>QF3</t>
         </is>
       </c>
-      <c r="G56" s="214" t="inlineStr">
+      <c r="G56" s="210" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="H56" s="252" t="inlineStr">
+      <c r="H56" s="246" t="inlineStr">
         <is>
           <t>0-3</t>
         </is>
@@ -10347,22 +10366,22 @@
       <c r="K56" s="140" t="n"/>
       <c r="L56" s="174" t="n"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="57" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B57" s="135" t="n"/>
       <c r="D57" s="170" t="n"/>
       <c r="E57" s="177" t="n"/>
-      <c r="F57" s="251" t="n"/>
-      <c r="G57" s="215" t="inlineStr">
+      <c r="F57" s="245" t="n"/>
+      <c r="G57" s="211" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="H57" s="251" t="n"/>
+      <c r="H57" s="245" t="n"/>
       <c r="K57" s="140" t="n"/>
       <c r="L57" s="174" t="n"/>
     </row>
-    <row r="58" ht="15" customHeight="1" s="228">
-      <c r="B58" s="250" t="inlineStr">
+    <row r="58" ht="15" customHeight="1" s="225">
+      <c r="B58" s="244" t="inlineStr">
         <is>
           <t>R6</t>
         </is>
@@ -10372,7 +10391,7 @@
           <t>England</t>
         </is>
       </c>
-      <c r="D58" s="252" t="inlineStr">
+      <c r="D58" s="246" t="inlineStr">
         <is>
           <t>2-1</t>
         </is>
@@ -10382,44 +10401,44 @@
       <c r="K58" s="140" t="n"/>
       <c r="L58" s="176" t="n"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B59" s="251" t="n"/>
+    <row r="59" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B59" s="245" t="n"/>
       <c r="C59" s="192" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="D59" s="251" t="n"/>
+      <c r="D59" s="245" t="n"/>
       <c r="G59" s="172" t="n"/>
       <c r="H59" s="174" t="n"/>
       <c r="I59" s="171" t="n"/>
-      <c r="J59" s="254" t="inlineStr">
+      <c r="J59" s="247" t="inlineStr">
         <is>
           <t>SF2</t>
         </is>
       </c>
-      <c r="K59" s="262" t="inlineStr">
+      <c r="K59" s="222" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L59" s="252" t="n"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" s="228">
+      <c r="L59" s="246" t="n"/>
+    </row>
+    <row r="60" ht="15" customHeight="1" s="225">
       <c r="B60" s="135" t="n"/>
       <c r="D60" s="170" t="n"/>
       <c r="G60" s="172" t="n"/>
       <c r="H60" s="174" t="n"/>
-      <c r="J60" s="251" t="n"/>
-      <c r="K60" s="263" t="inlineStr">
+      <c r="J60" s="245" t="n"/>
+      <c r="K60" s="223" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L60" s="251" t="n"/>
-    </row>
-    <row r="61" ht="15" customHeight="1" s="228">
-      <c r="B61" s="250" t="inlineStr">
+      <c r="L60" s="245" t="n"/>
+    </row>
+    <row r="61" ht="15" customHeight="1" s="225">
+      <c r="B61" s="244" t="inlineStr">
         <is>
           <t>R7</t>
         </is>
@@ -10429,7 +10448,7 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="D61" s="252" t="inlineStr">
+      <c r="D61" s="246" t="inlineStr">
         <is>
           <t>2-0</t>
         </is>
@@ -10437,16 +10456,16 @@
       <c r="G61" s="172" t="n"/>
       <c r="H61" s="176" t="n"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" s="228" thickBot="1">
-      <c r="B62" s="251" t="n"/>
+    <row r="62" ht="15.75" customHeight="1" s="225" thickBot="1">
+      <c r="B62" s="245" t="n"/>
       <c r="C62" s="198" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="D62" s="251" t="n"/>
+      <c r="D62" s="245" t="n"/>
       <c r="E62" s="169" t="n"/>
-      <c r="F62" s="253" t="inlineStr">
+      <c r="F62" s="248" t="inlineStr">
         <is>
           <t>QF4</t>
         </is>
@@ -10456,26 +10475,26 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="H62" s="252" t="inlineStr">
+      <c r="H62" s="246" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1" s="228" thickBot="1">
+    <row r="63" ht="15.75" customHeight="1" s="225" thickBot="1">
       <c r="B63" s="135" t="n"/>
       <c r="D63" s="170" t="n"/>
       <c r="E63" s="177" t="n"/>
-      <c r="F63" s="251" t="n"/>
+      <c r="F63" s="245" t="n"/>
       <c r="G63" s="205" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="H63" s="251" t="n"/>
-    </row>
-    <row r="64" ht="15" customHeight="1" s="228">
-      <c r="B64" s="250" t="inlineStr">
+      <c r="H63" s="245" t="n"/>
+    </row>
+    <row r="64" ht="15" customHeight="1" s="225">
+      <c r="B64" s="244" t="inlineStr">
         <is>
           <t>R8</t>
         </is>
@@ -10485,54 +10504,23 @@
           <t>Wales</t>
         </is>
       </c>
-      <c r="D64" s="252" t="inlineStr">
+      <c r="D64" s="246" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1" s="228">
-      <c r="B65" s="251" t="n"/>
+    <row r="65" ht="15" customHeight="1" s="225">
+      <c r="B65" s="245" t="n"/>
       <c r="C65" s="199" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D65" s="251" t="n"/>
+      <c r="D65" s="245" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
     <mergeCell ref="S42:T42"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C16:L16"/>
@@ -10547,6 +10535,37 @@
     <mergeCell ref="H39:L40"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="J59:J60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
